--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P39_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P39_trail14 Features.xlsx
@@ -4434,7 +4434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,29 +4445,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4488,115 +4486,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4613,72 +4601,66 @@
         <v>2.79257489188945e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.3262031617666304</v>
+        <v>1.18782875288726e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.596343564467094</v>
+        <v>1.341442929359456e-05</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.18782875288726e-06</v>
+        <v>0.03845198838572974</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.341442929359456e-05</v>
+        <v>0.2629676357680724</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.03845198838572974</v>
+        <v>0.07056181599004389</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2629676357680724</v>
+        <v>1.408995836491984</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.07056181599004389</v>
+        <v>1.403454783981</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.331210126858096</v>
+        <v>4.114062666224331</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.403454783981</v>
+        <v>3.115525824784654e-13</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.114062666224331</v>
+        <v>3378622.377419517</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.115525824784654e-13</v>
+        <v>2.750701246997384e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>3378622.377419517</v>
+        <v>3.556400509886193</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.750701246997384e-05</v>
+        <v>0.0001156358454732635</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>3.556400509886193</v>
+        <v>7.617347243739471</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001156358454732635</v>
+        <v>1.222671648094498</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.617347243739471</v>
+        <v>0.006709651873054156</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.222671648094498</v>
+        <v>3.079729278369659</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.006709651873054156</v>
+        <v>0.9228416529114298</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.079729278369659</v>
+        <v>1.87369560084143</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9228416529114298</v>
+        <v>9</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.87369560084143</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1922343857856052</v>
       </c>
     </row>
@@ -4693,72 +4675,66 @@
         <v>2.978164896010554e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.4688249525527129</v>
+        <v>1.375371638615803e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.3146025977383937</v>
+        <v>1.342799069147677e-05</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.375371638615803e-06</v>
+        <v>0.05287481628591705</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.342799069147677e-05</v>
+        <v>0.2513780695501477</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.05287481628591705</v>
+        <v>0.06597092396429102</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2513780695501477</v>
+        <v>1.355824108389989</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06597092396429102</v>
+        <v>1.398429351764934</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.278963994393917</v>
+        <v>3.891690673427009</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.398429351764934</v>
+        <v>3.481741577597056e-13</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.891690673427009</v>
+        <v>3105996.216317985</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.481741577597056e-13</v>
+        <v>2.85022171018439e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>3105996.216317985</v>
+        <v>3.358910085447679</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.85022171018439e-05</v>
+        <v>0.0001203723682563212</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>3.358910085447679</v>
+        <v>7.532391582334488</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001203723682563212</v>
+        <v>1.727060654210405</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.532391582334488</v>
+        <v>0.006829557783022596</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.727060654210405</v>
+        <v>3.176019288290003</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.006829557783022596</v>
+        <v>0.9124987048046709</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.176019288290003</v>
+        <v>1.949013263305618</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9124987048046709</v>
+        <v>9</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.949013263305618</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1824956236083827</v>
       </c>
     </row>
@@ -4773,72 +4749,66 @@
         <v>3.207951041538831e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.6326021530642049</v>
+        <v>1.463923508333946e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.0516531605281676</v>
+        <v>1.344453947424257e-05</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.463923508333946e-06</v>
+        <v>0.0519743882312289</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.344453947424257e-05</v>
+        <v>0.2348054717048365</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0519743882312289</v>
+        <v>0.05782745669743763</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2348054717048365</v>
+        <v>1.361090097569913</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.05782745669743763</v>
+        <v>1.455122999411404</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.283914774828752</v>
+        <v>3.577478566785182</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.455122999411404</v>
+        <v>4.120207419200569e-13</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.577478566785182</v>
+        <v>2655747.551301989</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.120207419200569e-13</v>
+        <v>3.338520574719225e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>2655747.551301989</v>
+        <v>2.90598025583318</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.338520574719225e-05</v>
+        <v>0.0001538375154692663</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>2.90598025583318</v>
+        <v>9.292432192425984</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001538375154692663</v>
+        <v>1.815038277205016</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.292432192425984</v>
+        <v>0.01328376116698055</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.815038277205016</v>
+        <v>3.147136714653445</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01328376116698055</v>
+        <v>0.9145667457536267</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.147136714653445</v>
+        <v>1.928670233350839</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9145667457536267</v>
+        <v>9</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.928670233350839</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1652355019245581</v>
       </c>
     </row>
@@ -4853,72 +4823,66 @@
         <v>3.43552972007792e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.7427533103385032</v>
+        <v>1.475017044236809e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.1932651884234202</v>
+        <v>1.346024995784053e-05</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.475017044236809e-06</v>
+        <v>0.04224832837394388</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.346024995784053e-05</v>
+        <v>0.2143553261151517</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.04224832837394388</v>
+        <v>0.04772183965032892</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2143553261151517</v>
+        <v>1.335810562591808</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04772183965032892</v>
+        <v>1.404342941969245</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.262318055377124</v>
+        <v>3.564738702380523</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.404342941969245</v>
+        <v>4.149710104065779e-13</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.564738702380523</v>
+        <v>2647797.196626324</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.149710104065779e-13</v>
+        <v>3.26052857358799e-05</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>2647797.196626324</v>
+        <v>2.90929120659073</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.26052857358799e-05</v>
+        <v>0.0001378093361684131</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>2.90929120659073</v>
+        <v>9.716512122261733</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001378093361684131</v>
+        <v>1.480463689907605</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.716512122261733</v>
+        <v>0.01301066319121437</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.480463689907605</v>
+        <v>3.136860631600302</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01301066319121437</v>
+        <v>0.9083467466155408</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.136860631600302</v>
+        <v>1.93134660464381</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9083467466155408</v>
+        <v>9</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.93134660464381</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1687924523219238</v>
       </c>
     </row>
@@ -4933,72 +4897,66 @@
         <v>3.637896798127911e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.8040635416080133</v>
+        <v>1.475017044236809e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.1653899813559225</v>
+        <v>1.347368444209503e-05</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.475017044236809e-06</v>
+        <v>0.03476973222652584</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.347368444209503e-05</v>
+        <v>0.1994322569544401</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.03476973222652584</v>
+        <v>0.04097988097333045</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1994322569544401</v>
+        <v>1.345211506517608</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.04097988097333045</v>
+        <v>1.469467167712951</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.268168175086316</v>
+        <v>3.649371618320858</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.469467167712951</v>
+        <v>3.959469304904176e-13</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.649371618320858</v>
+        <v>2730744.488663012</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.959469304904176e-13</v>
+        <v>3.176006732452191e-05</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>2730744.488663012</v>
+        <v>2.952562585595851</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.176006732452191e-05</v>
+        <v>0.0001266421821088546</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>2.952562585595851</v>
+        <v>9.311757034815702</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001266421821088546</v>
+        <v>1.128862219061955</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.311757034815702</v>
+        <v>0.01098099405579556</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.128862219061955</v>
+        <v>2.921007036992374</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01098099405579556</v>
+        <v>0.9161027646777296</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.921007036992374</v>
+        <v>1.94795399204043</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9161027646777296</v>
+        <v>10</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.94795399204043</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1840443688631133</v>
       </c>
     </row>
@@ -5013,72 +4971,66 @@
         <v>3.823975662228751e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.839357322799211</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.08164458073816627</v>
+        <v>1.348605741170851e-05</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.03184713350468248</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.348605741170851e-05</v>
+        <v>0.1894584417199399</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03184713350468248</v>
+        <v>0.03690870535584848</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1894584417199399</v>
+        <v>1.348462439501135</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03690870535584848</v>
+        <v>1.337818048976481</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.270975749421707</v>
+        <v>3.769961009186008</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.337818048976481</v>
+        <v>3.71021813415823e-13</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.769961009186008</v>
+        <v>2887912.823600834</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.71021813415823e-13</v>
+        <v>3.054215100051422e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>2887912.823600834</v>
+        <v>3.094336941633331</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.054215100051422e-05</v>
+        <v>0.000136529180266854</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>3.094336941633331</v>
+        <v>9.058124356707928</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.000136529180266854</v>
+        <v>1.193265430240706</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.058124356707928</v>
+        <v>0.0112021669313217</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.193265430240706</v>
+        <v>2.797854748541307</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0112021669313217</v>
+        <v>0.9189524991704181</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.797854748541307</v>
+        <v>1.909594899714377</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9189524991704181</v>
+        <v>10</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.909594899714377</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1826521485790856</v>
       </c>
     </row>
@@ -5093,72 +5045,66 @@
         <v>3.989241873091276e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.8441223694594824</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.05905005630635607</v>
+        <v>1.349788877430044e-05</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.02853200858549381</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.349788877430044e-05</v>
+        <v>0.1831654178996736</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.02853200858549381</v>
+        <v>0.03435751279889843</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1831654178996736</v>
+        <v>1.352080895563637</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03435751279889843</v>
+        <v>1.391962773050036</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.27243887155656</v>
+        <v>3.637387730921624</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.391962773050036</v>
+        <v>3.521726415507039e-13</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.637387730921624</v>
+        <v>3036628.095604508</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.521726415507039e-13</v>
+        <v>2.916917494007526e-05</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>3036628.095604508</v>
+        <v>3.247422733999748</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.916917494007526e-05</v>
+        <v>0.0001349619624174699</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>3.247422733999748</v>
+        <v>8.252244090900177</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001349619624174699</v>
+        <v>1.235265853643457</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.252244090900177</v>
+        <v>0.009190846550743492</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.235265853643457</v>
+        <v>2.859541724062297</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.009190846550743492</v>
+        <v>0.9214651509869254</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.859541724062297</v>
+        <v>1.955244862142212</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9214651509869254</v>
+        <v>10</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.955244862142212</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1846729461310525</v>
       </c>
     </row>
@@ -5173,72 +5119,66 @@
         <v>4.112165818588171e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.8089656629258805</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.2565978891479839</v>
+        <v>1.350879688975577e-05</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.02534375206503364</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.350879688975577e-05</v>
+        <v>0.1814474579676426</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.02534375206503364</v>
+        <v>0.0335535775610117</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1814474579676426</v>
+        <v>1.351732864034175</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.0335535775610117</v>
+        <v>1.527918589862429</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.270616918202055</v>
+        <v>3.640830587098201</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.527918589862429</v>
+        <v>3.515069107783892e-13</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.640830587098201</v>
+        <v>3038868.363071646</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.515069107783892e-13</v>
+        <v>2.925331003700959e-05</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>3038868.363071646</v>
+        <v>3.246068225329148</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.925331003700959e-05</v>
+        <v>0.0001296256760399404</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>3.246068225329148</v>
+        <v>7.297960451698104</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001296256760399404</v>
+        <v>1.867207984723181</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.297960451698104</v>
+        <v>0.006903892899099014</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.867207984723181</v>
+        <v>3.077673512350402</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.006903892899099014</v>
+        <v>0.9182520995960003</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.077673512350402</v>
+        <v>1.958867089270628</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9182520995960003</v>
+        <v>12</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.958867089270628</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1847474672560251</v>
       </c>
     </row>
@@ -5253,72 +5193,66 @@
         <v>4.191537126224978e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.7507096009721606</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.4442676712220242</v>
+        <v>1.351879555486e-05</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.02277046437288036</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.351879555486e-05</v>
+        <v>0.1814776359173464</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.02277046437288036</v>
+        <v>0.03344458197864219</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1814776359173464</v>
+        <v>1.353426203117003</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.03344458197864219</v>
+        <v>1.462715635969857</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.270655970097812</v>
+        <v>3.618304429311447</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.462715635969857</v>
+        <v>3.558972255229133e-13</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.618304429311447</v>
+        <v>2985122.120627158</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.558972255229133e-13</v>
+        <v>2.977093109955118e-05</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>2985122.120627158</v>
+        <v>3.171383832075092</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.977093109955118e-05</v>
+        <v>0.0001212775999284236</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>3.171383832075092</v>
+        <v>7.034346125974103</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001212775999284236</v>
+        <v>2.030273420247202</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.034346125974103</v>
+        <v>0.006001061282535682</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>2.030273420247202</v>
+        <v>3.191596125773041</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.006001061282535682</v>
+        <v>0.9151985496553608</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.191596125773041</v>
+        <v>1.925104933015191</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9151985496553608</v>
+        <v>9</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.925104933015191</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1942772620480499</v>
       </c>
     </row>
@@ -5333,72 +5267,66 @@
         <v>4.238646767300899e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.6888561094062265</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.5857732846835915</v>
+        <v>1.352784456644915e-05</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.01987897035542221</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.352784456644915e-05</v>
+        <v>0.1827003119405235</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.01987897035542221</v>
+        <v>0.03376902796895943</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1827003119405235</v>
+        <v>1.344394523787595</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.03376902796895943</v>
+        <v>1.527458217220281</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.263143532242306</v>
+        <v>3.633099600888584</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.527458217220281</v>
+        <v>3.530044675205778e-13</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.633099600888584</v>
+        <v>3008105.851499742</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.530044675205778e-13</v>
+        <v>2.930914196814152e-05</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>3008105.851499742</v>
+        <v>3.194231812538014</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.930914196814152e-05</v>
+        <v>0.0001184636688849933</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>3.194231812538014</v>
+        <v>7.428969948097079</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001184636688849933</v>
+        <v>1.305944681141883</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.428969948097079</v>
+        <v>0.006537961847528367</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.305944681141883</v>
+        <v>3.01272275171071</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.006537961847528367</v>
+        <v>0.9164796842047397</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.01272275171071</v>
+        <v>1.933117623502835</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9164796842047397</v>
+        <v>10</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.933117623502835</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2120637171688141</v>
       </c>
     </row>
@@ -5413,72 +5341,66 @@
         <v>4.262437428943441e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.634358415845797</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.6774330010406677</v>
+        <v>1.353551661548124e-05</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.01624775244421579</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.353551661548124e-05</v>
+        <v>0.1855924085583891</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.01624775244421579</v>
+        <v>0.03470204536272804</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1855924085583891</v>
+        <v>1.351620395675577</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03470204536272804</v>
+        <v>1.450698293538388</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.271071191794403</v>
+        <v>3.646012415512954</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.450698293538388</v>
+        <v>3.50508475259992e-13</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.646012415512954</v>
+        <v>3005596.92792001</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.50508475259992e-13</v>
+        <v>2.943835013840004e-05</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>3005596.92792001</v>
+        <v>3.166357881257268</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.943835013840004e-05</v>
+        <v>0.0001257863871677901</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>3.166357881257268</v>
+        <v>7.915339978294405</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001257863871677901</v>
+        <v>1.321672061140841</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.915339978294405</v>
+        <v>0.007880845077649577</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.321672061140841</v>
+        <v>2.874987502348248</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.007880845077649577</v>
+        <v>0.9200670162051815</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.874987502348248</v>
+        <v>1.945814835640976</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9200670162051815</v>
+        <v>10</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.945814835640976</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2089441745361741</v>
       </c>
     </row>
@@ -5493,72 +5415,66 @@
         <v>4.26820924317621e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.5906096080838797</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.7252254892289685</v>
+        <v>1.354190126015766e-05</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.01384415603997784</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.354190126015766e-05</v>
+        <v>0.1882822733154123</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.01384415603997784</v>
+        <v>0.03563514196127474</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1882822733154123</v>
+        <v>1.354338973205621</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.03563514196127474</v>
+        <v>1.428208118904389</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.272462936143297</v>
+        <v>3.700964332238265</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.428208118904389</v>
+        <v>3.401770500785528e-13</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.700964332238265</v>
+        <v>3094229.129580616</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.401770500785528e-13</v>
+        <v>2.85659783667569e-05</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>3094229.129580616</v>
+        <v>3.256941450563577</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.85659783667569e-05</v>
+        <v>0.0001351838057218238</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>3.256941450563577</v>
+        <v>8.251542853227043</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001351838057218238</v>
+        <v>1.411057289524162</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.251542853227043</v>
+        <v>0.009204389483452518</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.411057289524162</v>
+        <v>2.810746210065169</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.009204389483452518</v>
+        <v>0.9198168692550296</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.810746210065169</v>
+        <v>1.935681223149671</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9198168692550296</v>
+        <v>10</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.935681223149671</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2070047622976594</v>
       </c>
     </row>
@@ -5573,72 +5489,66 @@
         <v>4.260376079528729e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.5575726000009037</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.7398334710812824</v>
+        <v>1.354747301375632e-05</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.012296958172763</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.354747301375632e-05</v>
+        <v>0.1904712901201045</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.012296958172763</v>
+        <v>0.03642571337837645</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1904712901201045</v>
+        <v>1.360863437224469</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.03642571337837645</v>
+        <v>1.446041025383303</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.276546755610642</v>
+        <v>3.743012883781024</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.446041025383303</v>
+        <v>3.325769652080754e-13</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.743012883781024</v>
+        <v>3181805.322957009</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.325769652080754e-13</v>
+        <v>2.795685305842897e-05</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>3181805.322957009</v>
+        <v>3.366970987062455</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.795685305842897e-05</v>
+        <v>0.0001391135974669676</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>3.366970987062455</v>
+        <v>8.418670171080249</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001391135974669676</v>
+        <v>1.501120217946335</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.418670171080249</v>
+        <v>0.009859538143191755</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.501120217946335</v>
+        <v>2.839417887126433</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.009859538143191755</v>
+        <v>0.9190195512608087</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.839417887126433</v>
+        <v>1.947229764818043</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9190195512608087</v>
+        <v>10</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.947229764818043</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.209966725549411</v>
       </c>
     </row>
@@ -5653,72 +5563,66 @@
         <v>4.243654424960324e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.534691820310805</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.733363714345002</v>
+        <v>1.3552414092422e-05</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.01087910926026595</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.3552414092422e-05</v>
+        <v>0.1924937491582468</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.01087910926026595</v>
+        <v>0.03717011392209688</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1924937491582468</v>
+        <v>1.36442352340943</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03717011392209688</v>
+        <v>1.400935816709426</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.282082556964697</v>
+        <v>3.798735910184559</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.400935816709426</v>
+        <v>3.228914947766093e-13</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.798735910184559</v>
+        <v>3258502.489022495</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.228914947766093e-13</v>
+        <v>2.72436230756804e-05</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>3258502.489022495</v>
+        <v>3.428409735186734</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.72436230756804e-05</v>
+        <v>0.0001423076954608878</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>3.428409735186734</v>
+        <v>9.035777222482819</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001423076954608878</v>
+        <v>1.680547599491892</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.035777222482819</v>
+        <v>0.01161875022102256</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.680547599491892</v>
+        <v>2.955417924437758</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01161875022102256</v>
+        <v>0.9211271435598063</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.955417924437758</v>
+        <v>1.964940713636955</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9211271435598063</v>
+        <v>10</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.964940713636955</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2284215141901172</v>
       </c>
     </row>
@@ -5733,72 +5637,66 @@
         <v>4.223231773191122e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.5194365119719065</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.7171719058483967</v>
+        <v>1.35567496062218e-05</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.009690153831428638</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.35567496062218e-05</v>
+        <v>0.1940457624008209</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.009690153831428638</v>
+        <v>0.03774728032392018</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1940457624008209</v>
+        <v>1.379231483840289</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.03774728032392018</v>
+        <v>1.360729034031547</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.297003148758359</v>
+        <v>4.014247213968481</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.360729034031547</v>
+        <v>2.891522531305463e-13</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.014247213968481</v>
+        <v>3644882.883937845</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.891522531305463e-13</v>
+        <v>2.456984673106867e-05</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>3644882.883937845</v>
+        <v>3.841437196583839</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.456984673106867e-05</v>
+        <v>0.0001523445276469547</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>3.841437196583839</v>
+        <v>9.635790757230781</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001523445276469547</v>
+        <v>1.584528428209083</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.635790757230781</v>
+        <v>0.01414495531726331</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.584528428209083</v>
+        <v>2.852285570288728</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01414495531726331</v>
+        <v>0.9242487319368777</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.852285570288728</v>
+        <v>1.935943573869042</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9242487319368777</v>
+        <v>10</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.935943573869042</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.259822919873381</v>
       </c>
     </row>
@@ -5813,72 +5711,66 @@
         <v>4.202253258736146e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.5076927092018877</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.697945925022021</v>
+        <v>1.356069583170477e-05</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.009050855145799126</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.356069583170477e-05</v>
+        <v>0.1950835043508639</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.009050855145799126</v>
+        <v>0.03813929142193629</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1950835043508639</v>
+        <v>1.428872610060688</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.03813929142193629</v>
+        <v>1.512138330949049</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.342246403065526</v>
+        <v>3.191329657524014</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.512138330949049</v>
+        <v>2.483487854516852e-13</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.191329657524014</v>
+        <v>4012346.420578741</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.483487854516852e-13</v>
+        <v>2.369704483660855e-05</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>4012346.420578741</v>
+        <v>3.998148172494082</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.369704483660855e-05</v>
+        <v>0.0001518885208279015</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>3.998148172494082</v>
+        <v>9.270580746612419</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001518885208279015</v>
+        <v>1.544885000479913</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.270580746612419</v>
+        <v>0.01305385651279148</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.544885000479913</v>
+        <v>2.752471797668124</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01305385651279148</v>
+        <v>0.9331534310114886</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.752471797668124</v>
+        <v>1.918614328359007</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9331534310114886</v>
+        <v>9</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.918614328359007</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2671588536164826</v>
       </c>
     </row>
@@ -5893,72 +5785,66 @@
         <v>4.184059505767652e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.4959295801465314</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.6805886295991299</v>
+        <v>1.3564256513241e-05</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.007763658849185215</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.3564256513241e-05</v>
+        <v>0.1953833234722588</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.007763658849185215</v>
+        <v>0.03823202221606618</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1953833234722588</v>
+        <v>1.481513956039721</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.03823202221606618</v>
+        <v>1.415677550355221</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.388448509150984</v>
+        <v>3.327532189073353</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.415677550355221</v>
+        <v>2.284340534358738e-13</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.327532189073353</v>
+        <v>4092411.31068369</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.284340534358738e-13</v>
+        <v>2.458045633130359e-05</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>4092411.31068369</v>
+        <v>3.82577476986578</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.458045633130359e-05</v>
+        <v>0.0001309226086639238</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>3.82577476986578</v>
+        <v>7.933560033622961</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001309226086639238</v>
+        <v>1.503261031196483</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.933560033622961</v>
+        <v>0.008240448982639249</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.503261031196483</v>
+        <v>2.826935468649253</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.008240448982639249</v>
+        <v>0.938934599723703</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.826935468649253</v>
+        <v>1.918664080331571</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.938934599723703</v>
+        <v>9</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.918664080331571</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2398839451551102</v>
       </c>
     </row>
@@ -5973,72 +5859,66 @@
         <v>4.173092009925996e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.4827558346623509</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.6716175140707765</v>
+        <v>1.356708947569544e-05</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.005977393901781682</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.356708947569544e-05</v>
+        <v>0.1942217556827102</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.005977393901781682</v>
+        <v>0.03775086890016889</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1942217556827102</v>
+        <v>1.496172383040574</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.03775086890016889</v>
+        <v>1.445162339956867</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.404238793910666</v>
+        <v>3.989877338796125</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.445162339956867</v>
+        <v>1.750656695563993e-13</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.989877338796125</v>
+        <v>5362664.791505552</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.750656695563993e-13</v>
+        <v>1.894752930356707e-05</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>5362664.791505552</v>
+        <v>5.034568928066829</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.894752930356707e-05</v>
+        <v>0.0001236626715457062</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>5.034568928066829</v>
+        <v>7.679942873066522</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001236626715457062</v>
+        <v>1.289798738646314</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>7.679942873066522</v>
+        <v>0.007293812648333951</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.289798738646314</v>
+        <v>2.883311190610635</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.007293812648333951</v>
+        <v>0.9404400072548259</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.883311190610635</v>
+        <v>1.908770987290504</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9404400072548259</v>
+        <v>9</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.908770987290504</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2130863822131288</v>
       </c>
     </row>
@@ -6053,72 +5933,66 @@
         <v>4.168826314981124e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.467135906463542</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.6737066483662359</v>
+        <v>1.356956145762491e-05</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.006348475543867233</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.356956145762491e-05</v>
+        <v>0.1947217787235176</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.006348475543867233</v>
+        <v>0.03795377554397495</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1947217787235176</v>
+        <v>1.48097544998567</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.03795377554397495</v>
+        <v>1.550108200430875</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.392864007836651</v>
+        <v>4.116483834953975</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.550108200430875</v>
+        <v>1.644626368787804e-13</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.116483834953975</v>
+        <v>6243228.336841084</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.644626368787804e-13</v>
+        <v>1.59998957991673e-05</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>6243228.336841084</v>
+        <v>6.410408224841338</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.59998957991673e-05</v>
+        <v>0.0001148230155674413</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>6.410408224841338</v>
+        <v>7.935853356032115</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001148230155674413</v>
+        <v>1.256176149605076</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>7.935853356032115</v>
+        <v>0.007231297291551567</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.256176149605076</v>
+        <v>3.011964534371638</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.007231297291551567</v>
+        <v>0.9430788977954776</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.011964534371638</v>
+        <v>1.862581015355812</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9430788977954776</v>
+        <v>12</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.862581015355812</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2133149301404334</v>
       </c>
     </row>
@@ -6133,72 +6007,66 @@
         <v>4.167571264032755e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.4468106226977585</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.6838223058588699</v>
+        <v>1.357249007458894e-05</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.007615010101567677</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.357249007458894e-05</v>
+        <v>0.1950379073896861</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.007615010101567677</v>
+        <v>0.03809712675774225</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1950379073896861</v>
+        <v>1.466117435011323</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.03809712675774225</v>
+        <v>1.446894970813225</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.378831533660011</v>
+        <v>3.506050707251512</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.446894970813225</v>
+        <v>2.267167941952142e-13</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.506050707251512</v>
+        <v>4394762.737246003</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.267167941952142e-13</v>
+        <v>2.242153893596981e-05</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>4394762.737246003</v>
+        <v>4.378794450503312</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.242153893596981e-05</v>
+        <v>0.0001604292770548315</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>4.378794450503312</v>
+        <v>10.07024379063131</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001604292770548315</v>
+        <v>1.929225031997627</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.07024379063131</v>
+        <v>0.01626910250500876</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.929225031997627</v>
+        <v>3.238286532278778</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01626910250500876</v>
+        <v>0.9405132313107338</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.238286532278778</v>
+        <v>1.933958660366566</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9405132313107338</v>
+        <v>11</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.933958660366566</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.189511122968786</v>
       </c>
     </row>
@@ -6213,72 +6081,66 @@
         <v>4.164153202702016e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.4251707911730296</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.6900833970409384</v>
+        <v>1.357575021655916e-05</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.007793668650646777</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.357575021655916e-05</v>
+        <v>0.1951292996773016</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.007793668650646777</v>
+        <v>0.03813301224620794</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1951292996773016</v>
+        <v>1.510308307487285</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.03813301224620794</v>
+        <v>1.421629638925511</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.416761579909771</v>
+        <v>3.457123090111161</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.421629638925511</v>
+        <v>2.3317951369723e-13</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.457123090111161</v>
+        <v>4120276.109169454</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.3317951369723e-13</v>
+        <v>2.497560280111651e-05</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>4120276.109169454</v>
+        <v>3.95861287101433</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.497560280111651e-05</v>
+        <v>0.0001585284212829128</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>3.95861287101433</v>
+        <v>9.985600178614419</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001585284212829128</v>
+        <v>1.737396718677447</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.985600178614419</v>
+        <v>0.01580721938090899</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.737396718677447</v>
+        <v>3.207023223451274</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01580721938090899</v>
+        <v>0.9426646440726905</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.207023223451274</v>
+        <v>1.876350335539284</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9426646440726905</v>
+        <v>10</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.876350335539284</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1803302377969051</v>
       </c>
     </row>
@@ -6293,72 +6155,66 @@
         <v>4.15622949194582e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.4071874585116806</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.6857228265569004</v>
+        <v>1.357884168688244e-05</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.006855161515918366</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.357884168688244e-05</v>
+        <v>0.1962383866801806</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.006855161515918366</v>
+        <v>0.03855425253070631</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1962383866801806</v>
+        <v>1.508916258887895</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.03855425253070631</v>
+        <v>1.446690966973567</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.41488412641313</v>
+        <v>3.967857311863628</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.446690966973567</v>
+        <v>1.661833290135668e-13</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.967857311863628</v>
+        <v>5712661.710409523</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.661833290135668e-13</v>
+        <v>1.802668552036633e-05</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>5712661.710409523</v>
+        <v>5.423310485111241</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.802668552036633e-05</v>
+        <v>0.0001208342991670906</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>5.423310485111241</v>
+        <v>9.760443306891361</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001208342991670906</v>
+        <v>1.200687191712821</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.760443306891361</v>
+        <v>0.01151143098163098</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.200687191712821</v>
+        <v>3.026749919831228</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01151143098163098</v>
+        <v>0.939943070527119</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.026749919831228</v>
+        <v>1.874936276575605</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.939943070527119</v>
+        <v>13</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.874936276575605</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1956137083047353</v>
       </c>
     </row>
@@ -6373,72 +6229,66 @@
         <v>4.146744255824737e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.3948918273054501</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.6757375919026303</v>
+        <v>1.358132021495929e-05</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.004899337160403179</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.358132021495929e-05</v>
+        <v>0.1975644299785902</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.004899337160403179</v>
+        <v>0.03905473020672969</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1975644299785902</v>
+        <v>1.564132777425139</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.03905473020672969</v>
+        <v>1.517639420959693</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.466389215078135</v>
+        <v>4.147461095150935</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.517639420959693</v>
+        <v>1.521019931353387e-13</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.147461095150935</v>
+        <v>6116037.646410352</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.521019931353387e-13</v>
+        <v>1.718811926332557e-05</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>6116037.646410352</v>
+        <v>5.689514453534187</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.718811926332557e-05</v>
+        <v>0.0001217076171572135</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>5.689514453534187</v>
+        <v>8.681150862554265</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001217076171572135</v>
+        <v>1.220844810966099</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.681150862554265</v>
+        <v>0.009172175729417243</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.220844810966099</v>
+        <v>2.940159620060824</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.009172175729417243</v>
+        <v>0.9467148383596307</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.940159620060824</v>
+        <v>1.876507663616493</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9467148383596307</v>
+        <v>11</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.876507663616493</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1985368903505849</v>
       </c>
     </row>
@@ -6453,72 +6303,66 @@
         <v>4.140117454638204e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.3880837172087102</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.6678410998905742</v>
+        <v>1.35828209385049e-05</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.002260522118604254</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.35828209385049e-05</v>
+        <v>0.1982802305935324</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.002260522118604254</v>
+        <v>0.03931917025190918</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1982802305935324</v>
+        <v>1.575793315512407</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.03931917025190918</v>
+        <v>1.439017144484083</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.47973244227408</v>
+        <v>4.174635379814703</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.439017144484083</v>
+        <v>1.501282589061477e-13</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.174635379814703</v>
+        <v>6128446.851045267</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.501282589061477e-13</v>
+        <v>1.721838346901567e-05</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>6128446.851045267</v>
+        <v>5.638496251057233</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.721838346901567e-05</v>
+        <v>0.0001234395884359151</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>5.638496251057233</v>
+        <v>7.671925711262248</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001234395884359151</v>
+        <v>1.268613114144429</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>7.671925711262248</v>
+        <v>0.007265462118043314</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.268613114144429</v>
+        <v>3.020996990956224</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.007265462118043314</v>
+        <v>0.9502954584666227</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.020996990956224</v>
+        <v>1.875301315641816</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9502954584666227</v>
+        <v>10</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.875301315641816</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.193382759719851</v>
       </c>
     </row>
@@ -6533,72 +6377,66 @@
         <v>4.138742989326378e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.3867578246219918</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.6661459707952031</v>
+        <v>1.358311954560128e-05</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>-0.0008742237415532494</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.358311954560128e-05</v>
+        <v>0.1980845560632657</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.0008742237415532494</v>
+        <v>0.0392368999284841</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1980845560632657</v>
+        <v>1.601824069084318</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.0392368999284841</v>
+        <v>1.54588519284668</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.504904851042838</v>
+        <v>4.17894747099202</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.54588519284668</v>
+        <v>1.498185958873733e-13</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.17894747099202</v>
+        <v>6090172.171494019</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.498185958873733e-13</v>
+        <v>1.74662146845041e-05</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>6090172.171494019</v>
+        <v>5.556801247477863</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.74662146845041e-05</v>
+        <v>0.000127917119977551</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>5.556801247477863</v>
+        <v>6.821645892554334</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.000127917119977551</v>
+        <v>1.506175955328</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>6.821645892554334</v>
+        <v>0.005952604333840577</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.506175955328</v>
+        <v>3.105976058413261</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.005952604333840577</v>
+        <v>0.9510230018654394</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.105976058413261</v>
+        <v>1.844958463483264</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9510230018654394</v>
+        <v>9</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.844958463483264</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1802026124411314</v>
       </c>
     </row>
@@ -6613,72 +6451,66 @@
         <v>4.142393515786537e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.3909598751907069</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.6704506156508656</v>
+        <v>1.358224224168631e-05</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>-0.003016363474635032</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.358224224168631e-05</v>
+        <v>0.1975087746355344</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.003016363474635032</v>
+        <v>0.0390186511506282</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1975087746355344</v>
+        <v>1.581725556161942</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.0390186511506282</v>
+        <v>1.510420166255526</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.484641723033496</v>
+        <v>4.17574860663173</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.510420166255526</v>
+        <v>1.500482231846031e-13</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.17574860663173</v>
+        <v>6184825.37285098</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.500482231846031e-13</v>
+        <v>1.710169360538771e-05</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>6184825.37285098</v>
+        <v>5.739654370285956</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>1.710169360538771e-05</v>
+        <v>0.0001305758320265331</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>5.739654370285956</v>
+        <v>7.624309222343685</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001305758320265331</v>
+        <v>1.425829824551427</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>7.624309222343685</v>
+        <v>0.007590385013499927</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.425829824551427</v>
+        <v>3.080617966420114</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.007590385013499927</v>
+        <v>0.9517853709177482</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.080617966420114</v>
+        <v>1.879593880256554</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9517853709177482</v>
+        <v>7</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.879593880256554</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.174447695820448</v>
       </c>
     </row>
@@ -6693,72 +6525,66 @@
         <v>4.14832167511933e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.3977068918166181</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.6772992464152079</v>
+        <v>1.358082554709362e-05</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>-0.003698529104205673</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.358082554709362e-05</v>
+        <v>0.1973278991252095</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.003698529104205673</v>
+        <v>0.03895121696340558</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1973278991252095</v>
+        <v>1.566692023128315</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.03895121696340558</v>
+        <v>1.475145492754717</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.471587743710236</v>
+        <v>4.095026112526957</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.475145492754717</v>
+        <v>1.56022127603199e-13</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.095026112526957</v>
+        <v>5855108.639889464</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.56022127603199e-13</v>
+        <v>1.79051124307915e-05</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>5855108.639889464</v>
+        <v>5.348796945914546</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.79051124307915e-05</v>
+        <v>0.0001281102051141971</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>5.348796945914546</v>
+        <v>9.583514701910937</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001281102051141971</v>
+        <v>1.17964709714022</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.583514701910937</v>
+        <v>0.01176612216874558</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.17964709714022</v>
+        <v>2.915547914848282</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01176612216874558</v>
+        <v>0.9528526172473065</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.915547914848282</v>
+        <v>1.890483938803571</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9528526172473065</v>
+        <v>7</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.890483938803571</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.185273673511315</v>
       </c>
     </row>
@@ -6773,72 +6599,66 @@
         <v>4.156388013240643e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.4045270848628639</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.6869243078567058</v>
+        <v>1.357916330396698e-05</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>-0.004501224355824816</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1.357916330396698e-05</v>
+        <v>0.1972960079478494</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.004501224355824816</v>
+        <v>0.03894466961637923</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1972960079478494</v>
+        <v>1.563758804841026</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.03894466961637923</v>
+        <v>1.446506546497304</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.469387838960832</v>
+        <v>4.069242557408327</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.446506546497304</v>
+        <v>1.580055678768465e-13</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.069242557408327</v>
+        <v>5747666.335366352</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.580055678768465e-13</v>
+        <v>1.822616666885376e-05</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>5747666.335366352</v>
+        <v>5.21981953035983</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.822616666885376e-05</v>
+        <v>0.0001243444220126244</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>5.21981953035983</v>
+        <v>8.879807844544372</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001243444220126244</v>
+        <v>1.224909226802606</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.879807844544372</v>
+        <v>0.009804680447910528</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.224909226802606</v>
+        <v>2.985650763932433</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.009804680447910528</v>
+        <v>0.9529434841529234</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.985650763932433</v>
+        <v>1.856709472729727</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9529434841529234</v>
+        <v>7</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.856709472729727</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1877067045168438</v>
       </c>
     </row>
@@ -6853,72 +6673,66 @@
         <v>4.169308589009382e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.4117824946718538</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.70224935008447</v>
+        <v>1.35768806277531e-05</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>-0.00674551713835342</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.35768806277531e-05</v>
+        <v>0.1974557820997375</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.00674551713835342</v>
+        <v>0.03903286406389671</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1974557820997375</v>
+        <v>1.554867793403731</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.03903286406389671</v>
+        <v>1.428232518585699</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.459441123469893</v>
+        <v>4.128947021266701</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.428232518585699</v>
+        <v>1.534690927932303e-13</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.128947021266701</v>
+        <v>5927054.351966691</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.534690927932303e-13</v>
+        <v>1.761071998364129e-05</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>5927054.351966691</v>
+        <v>5.391365130845855</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1.761071998364129e-05</v>
+        <v>0.0001227115264018052</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>5.391365130845855</v>
+        <v>7.428283899197665</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001227115264018052</v>
+        <v>1.311274379143138</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>7.428283899197665</v>
+        <v>0.006771148606959844</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.311274379143138</v>
+        <v>3.096464712184265</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.006771148606959844</v>
+        <v>0.9513717687908813</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.096464712184265</v>
+        <v>1.871269089342802</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9513717687908813</v>
+        <v>8</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.871269089342802</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1865490078458733</v>
       </c>
     </row>
@@ -6933,72 +6747,66 @@
         <v>4.190329665580783e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.420473624756767</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.7257571843356585</v>
+        <v>1.357344094072667e-05</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>-0.009539728387869791</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.357344094072667e-05</v>
+        <v>0.1969630855499183</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.009539728387869791</v>
+        <v>0.038884713603531</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1969630855499183</v>
+        <v>1.551994521916133</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.038884713603531</v>
+        <v>1.414404023091361</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.457310235067667</v>
+        <v>4.249120100927449</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.414404023091361</v>
+        <v>1.449110601410932e-13</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.249120100927449</v>
+        <v>6338815.387187858</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.449110601410932e-13</v>
+        <v>1.649594525607281e-05</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>6338815.387187858</v>
+        <v>5.822610519201579</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.649594525607281e-05</v>
+        <v>0.0001250223821291366</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>5.822610519201579</v>
+        <v>7.333529249325248</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001250223821291366</v>
+        <v>1.345278504235086</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>7.333529249325248</v>
+        <v>0.006723785131819959</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.345278504235086</v>
+        <v>3.061440789732074</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.006723785131819959</v>
+        <v>0.9515069984788903</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.061440789732074</v>
+        <v>1.87533289272546</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9515069984788903</v>
+        <v>8</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.87533289272546</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1904347568622292</v>
       </c>
     </row>
@@ -7013,72 +6821,66 @@
         <v>4.217440943673403e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.4284087955199235</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.7540003559477571</v>
+        <v>1.356928979254358e-05</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>-0.009662445425753645</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.356928979254358e-05</v>
+        <v>0.1956890633031284</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.009662445425753645</v>
+        <v>0.03838610867180711</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1956890633031284</v>
+        <v>1.553205097326367</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.03838610867180711</v>
+        <v>1.43834944367449</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.458376257310464</v>
+        <v>4.325498663264637</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.43834944367449</v>
+        <v>1.398386370742065e-13</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.325498663264637</v>
+        <v>6512748.566784362</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.398386370742065e-13</v>
+        <v>1.603850004187588e-05</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>6512748.566784362</v>
+        <v>5.931380792442339</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.603850004187588e-05</v>
+        <v>0.0001307259607195838</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>5.931380792442339</v>
+        <v>7.782579417690486</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001307259607195838</v>
+        <v>1.297760423145567</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>7.782579417690486</v>
+        <v>0.007917880893665265</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.297760423145567</v>
+        <v>2.990025279988154</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.007917880893665265</v>
+        <v>0.9526647157631531</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.990025279988154</v>
+        <v>1.861395211124675</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9526647157631531</v>
+        <v>8</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.861395211124675</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.186191826181041</v>
       </c>
     </row>
@@ -7093,72 +6895,66 @@
         <v>4.243790327870519e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.4318574433502275</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.7800009146731335</v>
+        <v>1.356567394447573e-05</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>-0.007144017627801807</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1.356567394447573e-05</v>
+        <v>0.1933947036067225</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.007144017627801807</v>
+        <v>0.03745037050605361</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1933947036067225</v>
+        <v>1.560882864160923</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.03745037050605361</v>
+        <v>1.42096268796208</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.466593544446457</v>
+        <v>4.326034428786144</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.42096268796208</v>
+        <v>1.398040020835671e-13</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.326034428786144</v>
+        <v>6571656.854450462</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1.398040020835671e-13</v>
+        <v>1.591906888008282e-05</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>6571656.854450462</v>
+        <v>6.037669835685459</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>1.591906888008282e-05</v>
+        <v>0.0001441656550762878</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>6.037669835685459</v>
+        <v>9.277396276389181</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001441656550762878</v>
+        <v>1.20166500187439</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>9.277396276389181</v>
+        <v>0.01240834970630402</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.20166500187439</v>
+        <v>2.821171383638128</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01240834970630402</v>
+        <v>0.9536521273687368</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.821171383638128</v>
+        <v>1.864725896712507</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9536521273687368</v>
+        <v>8</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.864725896712507</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.1764337649465121</v>
       </c>
     </row>
@@ -7173,72 +6969,66 @@
         <v>4.261536427105328e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.4320732603613743</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.7968127792276922</v>
+        <v>1.356344670464747e-05</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>-0.003203067541726021</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1.356344670464747e-05</v>
+        <v>0.1914341532984634</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.003203067541726021</v>
+        <v>0.03665494934358282</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1914341532984634</v>
+        <v>1.538916697330094</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.03665494934358282</v>
+        <v>1.394069851330209</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.447091822789867</v>
+        <v>4.417744746458641</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.394069851330209</v>
+        <v>1.278066501705525e-13</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.417744746458641</v>
+        <v>7132048.015182044</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1.278066501705525e-13</v>
+        <v>1.450778605564271e-05</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>7132048.015182044</v>
+        <v>6.501026984551648</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>1.450778605564271e-05</v>
+        <v>0.0001745484460915027</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>6.501026984551648</v>
+        <v>10.4137879294156</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001745484460915027</v>
+        <v>1.244259525755681</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>10.4137879294156</v>
+        <v>0.01892925167454764</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.244259525755681</v>
+        <v>2.767464833777594</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01892925167454764</v>
+        <v>0.9528428157596538</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.767464833777594</v>
+        <v>1.900268830148489</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9528428157596538</v>
+        <v>8</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.900268830148489</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.1538803818348266</v>
       </c>
     </row>
@@ -7253,72 +7043,66 @@
         <v>4.265884920333289e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.4318626558047278</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.8008242422217102</v>
+        <v>1.356292772747201e-05</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.0006184611560773474</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1.356292772747201e-05</v>
+        <v>0.1903768281240902</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.0006184611560773474</v>
+        <v>0.03624221428612182</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1903768281240902</v>
+        <v>1.634000432155113</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.03624221428612182</v>
+        <v>1.466231636144033</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.543484803478167</v>
+        <v>4.283427439813767</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.466231636144033</v>
+        <v>1.169606376378964e-13</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.283427439813767</v>
+        <v>7167482.667459751</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1.169606376378964e-13</v>
+        <v>1.556875652557892e-05</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>7167482.667459751</v>
+        <v>6.008596356172863</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>1.556875652557892e-05</v>
+        <v>0.0001949845163297544</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>6.008596356172863</v>
+        <v>10.26685891924999</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001949845163297544</v>
+        <v>1.40293842901019</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>10.26685891924999</v>
+        <v>0.02055300434443379</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.40293842901019</v>
+        <v>2.800804670986981</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.02055300434443379</v>
+        <v>0.9563612556323927</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.800804670986981</v>
+        <v>1.806541956330254</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9563612556323927</v>
+        <v>9</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.806541956330254</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.1527534711303513</v>
       </c>
     </row>
@@ -7333,72 +7117,66 @@
         <v>4.257606480814621e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.4329076081801854</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.7935944123772858</v>
+        <v>1.356386886184431e-05</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.00370795722999445</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1.356386886184431e-05</v>
+        <v>0.1904809118057669</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.00370795722999445</v>
+        <v>0.03629577312361195</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1904809118057669</v>
+        <v>1.66039999916518</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.03629577312361195</v>
+        <v>1.436623603794252</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.567054390459655</v>
+        <v>5.607086021341234</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.436623603794252</v>
+        <v>5.465491987894135e-14</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>5.607086021341234</v>
+        <v>15083177.38623477</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>5.465491987894135e-14</v>
+        <v>7.487810449984513e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>15083177.38623477</v>
+        <v>12.43411670301171</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>7.487810449984513e-06</v>
+        <v>0.000141733951315536</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>12.43411670301171</v>
+        <v>10.61496127920601</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.000141733951315536</v>
+        <v>1.231760722013803</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>10.61496127920601</v>
+        <v>0.01597021354535803</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.231760722013803</v>
+        <v>3.013289746375504</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01597021354535803</v>
+        <v>0.9572439279277395</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.013289746375504</v>
+        <v>1.799162813684812</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9572439279277395</v>
+        <v>9</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.799162813684812</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.2054957532537275</v>
       </c>
     </row>
@@ -7413,72 +7191,66 @@
         <v>4.239063057631179e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.4350551426926155</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.7772725746708335</v>
+        <v>1.356599820671783e-05</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.006269339807377227</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>1.356599820671783e-05</v>
+        <v>0.1917399320612258</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.006269339807377227</v>
+        <v>0.03680244555072137</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1917399320612258</v>
+        <v>1.716731211536493</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.03680244555072137</v>
+        <v>1.661227239641366</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.629739154828118</v>
+        <v>4.072544222976985</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.661227239641366</v>
+        <v>2.76562503356003e-14</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.072544222976985</v>
+        <v>28802043.28551114</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2.76562503356003e-14</v>
+        <v>3.991146868696375e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>28802043.28551114</v>
+        <v>22.94245534768434</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>3.991146868696375e-06</v>
+        <v>0.0001249933283891009</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>22.94245534768434</v>
+        <v>8.413871946055457</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001249933283891009</v>
+        <v>1.358365799834194</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>8.413871946055457</v>
+        <v>0.008848682835618309</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.358365799834194</v>
+        <v>3.226437289910299</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.008848682835618309</v>
+        <v>0.9612887416450405</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.226437289910299</v>
+        <v>1.737238965646818</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9612887416450405</v>
+        <v>9</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.737238965646818</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.2134589367344702</v>
       </c>
     </row>
@@ -7493,72 +7265,66 @@
         <v>4.211570582885011e-07</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.4373796304210272</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-0.7525436725275663</v>
+        <v>1.356925169449584e-05</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.009192571295674834</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>1.356925169449584e-05</v>
+        <v>0.1931546871660124</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0.009192571295674834</v>
+        <v>0.03739219834723453</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.1931546871660124</v>
+        <v>1.697868434249702</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.03739219834723453</v>
+        <v>1.669136472515987</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.609296336524559</v>
+        <v>4.565975783065588</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.669136472515987</v>
+        <v>3.572078281086491e-14</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>4.565975783065588</v>
+        <v>22521082.88749896</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>3.572078281086491e-14</v>
+        <v>5.070101959259812e-06</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>22521082.88749896</v>
+        <v>18.11755155150679</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>5.070101959259812e-06</v>
+        <v>0.0001294413002625446</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>18.11755155150679</v>
+        <v>7.359582709834454</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001294413002625446</v>
+        <v>1.662574457012717</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>7.359582709834454</v>
+        <v>0.007010988386600319</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.662574457012717</v>
+        <v>3.291131016321216</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.007010988386600319</v>
+        <v>0.9621108968215208</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>3.291131016321216</v>
+        <v>1.753275549649964</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9621108968215208</v>
+        <v>9</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.753275549649964</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.2052672007400695</v>
       </c>
     </row>
@@ -7573,72 +7339,66 @@
         <v>4.172457134884767e-07</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.4437435094805693</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-0.7195604781495342</v>
+        <v>1.357369023006797e-05</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.01187477598567046</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1.357369023006797e-05</v>
+        <v>0.1941082901611772</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0.01187477598567046</v>
+        <v>0.03781774432664994</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.1941082901611772</v>
+        <v>1.679194521204285</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.03781774432664994</v>
+        <v>1.655679049062013</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.587337918648211</v>
+        <v>4.215875886619123</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.655679049062013</v>
+        <v>4.265830704089644e-14</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>4.215875886619123</v>
+        <v>18981929.46592821</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>4.265830704089644e-14</v>
+        <v>5.976117381136913e-06</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>18981929.46592821</v>
+        <v>15.37037015273499</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>5.976117381136913e-06</v>
+        <v>0.000125161572081174</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>15.37037015273499</v>
+        <v>8.394774536683125</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.000125161572081174</v>
+        <v>1.469374149107148</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>8.394774536683125</v>
+        <v>0.008820416286622444</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.469374149107148</v>
+        <v>3.276695533002565</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.008820416286622444</v>
+        <v>0.9624197332239572</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>3.276695533002565</v>
+        <v>1.761956567038554</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9624197332239572</v>
+        <v>9</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.761956567038554</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.2134928470050359</v>
       </c>
     </row>
@@ -7653,72 +7413,66 @@
         <v>4.119963695877005e-07</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.4606865205953136</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-0.6823060632729945</v>
+        <v>1.357910171460163e-05</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.01417694302074583</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>1.357910171460163e-05</v>
+        <v>0.1956844111607579</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0.01417694302074583</v>
+        <v>0.03849252124610354</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.1956844111607579</v>
+        <v>1.666019525128554</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.03849252124610354</v>
+        <v>1.711096500073211</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.568460813949272</v>
+        <v>4.21365398921462</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.711096500073211</v>
+        <v>4.270330711529065e-14</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>4.21365398921462</v>
+        <v>19095261.32263964</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>4.270330711529065e-14</v>
+        <v>5.930040493107502e-06</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>19095261.32263964</v>
+        <v>15.57086438279941</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>5.930040493107502e-06</v>
+        <v>0.0001211016778065047</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>15.57086438279941</v>
+        <v>11.22774079321794</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001211016778065047</v>
+        <v>1.185404377608297</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>11.22774079321794</v>
+        <v>0.01526633948593211</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.185404377608297</v>
+        <v>3.066277939457975</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.01526633948593211</v>
+        <v>0.9597162653539899</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>3.066277939457975</v>
+        <v>1.807574754069763</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9597162653539899</v>
+        <v>10</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.807574754069763</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.2363553115109155</v>
       </c>
     </row>
@@ -7733,72 +7487,66 @@
         <v>4.054233149750314e-07</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.4918078005257359</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-0.645966795940204</v>
+        <v>1.35853505209483e-05</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.0162771579527403</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>1.35853505209483e-05</v>
+        <v>0.1983516978740364</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0.0162771579527403</v>
+        <v>0.03960808694121735</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.1983516978740364</v>
+        <v>1.631887087685974</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.03960808694121735</v>
+        <v>1.616504521912113</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.535953350144512</v>
+        <v>4.231447627841336</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.616504521912113</v>
+        <v>4.234491931666542e-14</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>4.231447627841336</v>
+        <v>19378566.89026546</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>4.234491931666542e-14</v>
+        <v>5.778622715184086e-06</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>19378566.89026546</v>
+        <v>15.90173905421904</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>5.778622715184086e-06</v>
+        <v>0.0001158412508255025</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>15.90173905421904</v>
+        <v>10.02402190942383</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001158412508255025</v>
+        <v>1.285296260968535</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>10.02402190942383</v>
+        <v>0.01163984648968853</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.285296260968535</v>
+        <v>3.157005382090682</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.01163984648968853</v>
+        <v>0.9584327469807536</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>3.157005382090682</v>
+        <v>1.824017169750169</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9584327469807536</v>
+        <v>11</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.824017169750169</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.2320098400969539</v>
       </c>
     </row>
@@ -7813,72 +7561,66 @@
         <v>3.979234471097354e-07</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.5373590451868772</v>
+        <v>1.483657768520443e-06</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-0.615493233809544</v>
+        <v>1.359205949794155e-05</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>1.483657768520443e-06</v>
+        <v>0.01674169797825146</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>1.359205949794155e-05</v>
+        <v>0.2020560513042831</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0.01674169797825146</v>
+        <v>0.04110674346618447</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.2020560513042831</v>
+        <v>1.653136754241305</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.04110674346618447</v>
+        <v>1.680024909433964</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.563226814020771</v>
+        <v>4.063052251058381</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.680024909433964</v>
+        <v>4.592767228093911e-14</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>4.063052251058381</v>
+        <v>17731567.79145737</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>4.592767228093911e-14</v>
+        <v>6.346788438292298e-06</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>17731567.79145737</v>
+        <v>14.44005038238637</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>6.346788438292298e-06</v>
+        <v>0.0001049659046028795</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>14.44005038238637</v>
+        <v>6.973298088719319</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001049659046028795</v>
+        <v>1.377713884063898</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>6.973298088719319</v>
+        <v>0.005104165101587446</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.377713884063898</v>
+        <v>3.33249979640552</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.005104165101587446</v>
+        <v>0.957502348667029</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>3.33249979640552</v>
+        <v>1.806886778200103</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.957502348667029</v>
+        <v>10</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.806886778200103</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.2358955249871114</v>
       </c>
     </row>
@@ -7893,72 +7635,66 @@
         <v>3.903959970560735e-07</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.5928416003526539</v>
+        <v>1.468133827966148e-06</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-0.5937993529833001</v>
+        <v>1.359842514663402e-05</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>1.468133827966148e-06</v>
+        <v>0.01529529584989829</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>1.359842514663402e-05</v>
+        <v>0.2061822161745758</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0.01529529584989829</v>
+        <v>0.04274436099077022</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.2061822161745758</v>
+        <v>1.63468529128058</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.04274436099077022</v>
+        <v>1.665612807089024</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.539178895646645</v>
+        <v>4.210099754760362</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1.665612807089024</v>
+        <v>4.277543919806549e-14</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>4.210099754760362</v>
+        <v>19146295.01924128</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>4.277543919806549e-14</v>
+        <v>5.856358525918307e-06</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>19146295.01924128</v>
+        <v>15.68064672102362</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>5.856358525918307e-06</v>
+        <v>9.940701369988502e-05</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>15.68064672102362</v>
+        <v>5.971906657688185</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>9.940701369988502e-05</v>
+        <v>1.889518440386649</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>5.971906657688185</v>
+        <v>0.003545218845609227</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.889518440386649</v>
+        <v>3.435007729539937</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.003545218845609227</v>
+        <v>0.9546120391593546</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>3.435007729539937</v>
+        <v>1.807614973318841</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9546120391593546</v>
+        <v>13</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.807614973318841</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.256132378756548</v>
       </c>
     </row>
@@ -8335,7 +8071,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.598056188403172</v>
+        <v>1.53895923694165</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.926379572807778</v>
@@ -8424,7 +8160,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.587736148885124</v>
+        <v>1.532918733650457</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.195851619927842</v>
@@ -8513,7 +8249,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.595716707251182</v>
+        <v>1.539877607750399</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.941117885251038</v>
@@ -8602,7 +8338,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.588931044907427</v>
+        <v>1.536898135741211</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.89913112474249</v>
@@ -8691,7 +8427,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.593064622829316</v>
+        <v>1.535406405177461</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.876878818048968</v>
@@ -8780,7 +8516,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.581003662052096</v>
+        <v>1.526166202910421</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.186179279028698</v>
@@ -8869,7 +8605,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.583877897297581</v>
+        <v>1.534314356381697</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.682776199002564</v>
@@ -8958,7 +8694,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.583224115601938</v>
+        <v>1.537704806210105</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.635463767620461</v>
@@ -9047,7 +8783,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.583367364284003</v>
+        <v>1.53670002679657</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.177427349746141</v>
@@ -9136,7 +8872,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.587064137573904</v>
+        <v>1.53972545350019</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.994842433240174</v>
@@ -9225,7 +8961,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.577210428139187</v>
+        <v>1.524790851002927</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.796070548347144</v>
@@ -9314,7 +9050,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.594184013129576</v>
+        <v>1.533029321553132</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.068811985313738</v>
@@ -9403,7 +9139,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.597296239038557</v>
+        <v>1.53444640103847</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.995827132365521</v>
@@ -9492,7 +9228,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.605044115271631</v>
+        <v>1.543822693507854</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.626845838156879</v>
@@ -9581,7 +9317,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.605226412582547</v>
+        <v>1.547459553490755</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.033513082569456</v>
@@ -9670,7 +9406,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.611531469136567</v>
+        <v>1.551708551503308</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.318310381954833</v>
@@ -9759,7 +9495,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.622784449470803</v>
+        <v>1.560683163087894</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.174572567637716</v>
@@ -9848,7 +9584,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.615107829005718</v>
+        <v>1.5479225232044</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.077577024323666</v>
@@ -9937,7 +9673,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.620369132136657</v>
+        <v>1.553087000493837</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.163119193544339</v>
@@ -10026,7 +9762,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.623114805084789</v>
+        <v>1.562328660443105</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.856613724235305</v>
@@ -10115,7 +9851,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.613094050570663</v>
+        <v>1.555018545234137</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.650542613843192</v>
@@ -10204,7 +9940,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.621956613731424</v>
+        <v>1.560851363649925</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.777009459244481</v>
@@ -10293,7 +10029,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.628567823284683</v>
+        <v>1.561033156806531</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.674726633379391</v>
@@ -10382,7 +10118,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.631470799451034</v>
+        <v>1.555845586495185</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.85563656241938</v>
@@ -10471,7 +10207,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.636885261651999</v>
+        <v>1.555450739819876</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.577195209033171</v>
@@ -10560,7 +10296,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.648495508434288</v>
+        <v>1.564811738611378</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.438687829855549</v>
@@ -10649,7 +10385,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.632109217826516</v>
+        <v>1.558894211868591</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.617727620549617</v>
@@ -10738,7 +10474,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.627042488388055</v>
+        <v>1.562051252295458</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.578569570170969</v>
@@ -10827,7 +10563,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.620693169007245</v>
+        <v>1.558454598988797</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.755944972625466</v>
@@ -10916,7 +10652,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.62991122648791</v>
+        <v>1.562931086301153</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.563584302103751</v>
@@ -11005,7 +10741,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.637552173629231</v>
+        <v>1.57125849949904</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.583585691485889</v>
@@ -11094,7 +10830,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.62586611461698</v>
+        <v>1.567699822813133</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.79656844671197</v>
@@ -11183,7 +10919,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.626564064345194</v>
+        <v>1.571221982425847</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.643686852283041</v>
@@ -11272,7 +11008,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.634809205773119</v>
+        <v>1.574165771171108</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.807457528525387</v>
@@ -11361,7 +11097,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.655492669353451</v>
+        <v>1.588187457830141</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.699362024617784</v>
@@ -11450,7 +11186,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.651755141392313</v>
+        <v>1.577076155217557</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.938485972360477</v>
@@ -11539,7 +11275,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.648013291514824</v>
+        <v>1.571509324415205</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.022257403214787</v>
@@ -11628,7 +11364,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.655022542393823</v>
+        <v>1.578719550004213</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.921843315543976</v>
@@ -11717,7 +11453,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.657433109129736</v>
+        <v>1.584563955471763</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.015345221155908</v>
@@ -11806,7 +11542,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.653316360414415</v>
+        <v>1.568782707437676</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.912493706886257</v>
@@ -11895,7 +11631,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.670455335714769</v>
+        <v>1.581955509138658</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.939611897676865</v>
@@ -11984,7 +11720,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.68744436801387</v>
+        <v>1.590550825734627</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.259833201418492</v>
@@ -12073,7 +11809,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.691391892087659</v>
+        <v>1.593025461455112</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.297226837298861</v>
@@ -12162,7 +11898,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.693570839920646</v>
+        <v>1.589965409731042</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.293738457584419</v>
@@ -12251,7 +11987,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.691926559562436</v>
+        <v>1.589159833686325</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.090307676753243</v>
@@ -12340,7 +12076,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.681481866985</v>
+        <v>1.582334402256347</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.442529367194542</v>
@@ -12429,7 +12165,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.692686883300781</v>
+        <v>1.579231346191189</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.878642972899849</v>
@@ -12518,7 +12254,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.679422915349781</v>
+        <v>1.571355711463336</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.567485337735435</v>
@@ -12607,7 +12343,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.661099531627076</v>
+        <v>1.561165518197435</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.254209342428192</v>
@@ -12696,7 +12432,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.656339552331363</v>
+        <v>1.553895106140442</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.478392646843032</v>
@@ -12785,7 +12521,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.668624796987131</v>
+        <v>1.563507100041937</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.948152936912191</v>
@@ -12874,7 +12610,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.665344097897858</v>
+        <v>1.562524252891387</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.429380785548076</v>
@@ -12963,7 +12699,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.652434660574801</v>
+        <v>1.55199971973325</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.951076677412142</v>
@@ -13052,7 +12788,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.656824191697204</v>
+        <v>1.560967237890888</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.86114721689639</v>
@@ -13141,7 +12877,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.643356773793966</v>
+        <v>1.565117819972736</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.747853850982716</v>
@@ -13230,7 +12966,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.641386193722134</v>
+        <v>1.566952599503495</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.840469132999124</v>
@@ -13319,7 +13055,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.641141386757104</v>
+        <v>1.570494749180776</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.71982622842159</v>
@@ -13408,7 +13144,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.637390823061311</v>
+        <v>1.555238717188631</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.794070052596733</v>
@@ -13497,7 +13233,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.633778323295638</v>
+        <v>1.554996448357946</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.855485261036018</v>
@@ -13586,7 +13322,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.633043543727019</v>
+        <v>1.55304409991641</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.924837875089752</v>
@@ -13675,7 +13411,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.645557315393258</v>
+        <v>1.559586820247524</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.026564092480574</v>
@@ -13764,7 +13500,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.625045918029796</v>
+        <v>1.549063133568646</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.698226655265595</v>
@@ -13853,7 +13589,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.636098882794137</v>
+        <v>1.559371075680871</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.820485573542332</v>
@@ -13942,7 +13678,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.646086834371397</v>
+        <v>1.556129979816537</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.727674024217084</v>
@@ -14031,7 +13767,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.633943657300679</v>
+        <v>1.545624907090238</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.90063057931892</v>
@@ -14120,7 +13856,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.626220130876163</v>
+        <v>1.539876636641429</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.840623516315464</v>
@@ -14209,7 +13945,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.620584284463275</v>
+        <v>1.52987606864204</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.905889692302011</v>
@@ -14298,7 +14034,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.622108340219373</v>
+        <v>1.525747386960572</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.78372137152826</v>
@@ -14387,7 +14123,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.613873509371875</v>
+        <v>1.518534764408576</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.746165309562169</v>
@@ -14476,7 +14212,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.610231382959238</v>
+        <v>1.513786467762553</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.748080673393762</v>
@@ -14565,7 +14301,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.615455379426385</v>
+        <v>1.5184310916593</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.918968206997317</v>
@@ -14654,7 +14390,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.613281818337134</v>
+        <v>1.521373224082091</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.062833036099567</v>
@@ -14743,7 +14479,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.602501900284648</v>
+        <v>1.522150442005522</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.885848797632038</v>
@@ -14832,7 +14568,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.612294911267191</v>
+        <v>1.528854464881423</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.758144201120349</v>
@@ -14921,7 +14657,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.615244471596075</v>
+        <v>1.530563600190716</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.709530747712206</v>
@@ -15010,7 +14746,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.615253920937418</v>
+        <v>1.523487267749358</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.091123646389721</v>
@@ -15099,7 +14835,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.635022649760099</v>
+        <v>1.536935350098059</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.89701013270139</v>
@@ -15188,7 +14924,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.623006463074654</v>
+        <v>1.526016521663827</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.870815043844658</v>
@@ -15277,7 +15013,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.640949986654711</v>
+        <v>1.544974934345521</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.783146913911128</v>
@@ -15366,7 +15102,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.635416474884936</v>
+        <v>1.536050598483194</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.973222764722339</v>
@@ -15455,7 +15191,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.639588758251068</v>
+        <v>1.532340473617747</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.856938011484328</v>
@@ -15544,7 +15280,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.63019510497948</v>
+        <v>1.537465177356357</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.751542749301869</v>
@@ -15633,7 +15369,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.642123198359038</v>
+        <v>1.550477758265339</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.007813643273998</v>
@@ -15722,7 +15458,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.64629228127731</v>
+        <v>1.554868574519628</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.736723486282129</v>
@@ -15811,7 +15547,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.669849059914836</v>
+        <v>1.573630971328641</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.452625545744987</v>
@@ -15900,7 +15636,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.654545577153753</v>
+        <v>1.562946011491334</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.433691983024604</v>
@@ -15989,7 +15725,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.644583055743192</v>
+        <v>1.554028711311285</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.180319774336665</v>
@@ -16275,7 +16011,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.700766705373849</v>
+        <v>1.61067877813533</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.438249984339731</v>
@@ -16364,7 +16100,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.690004753098533</v>
+        <v>1.611165716524275</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.213462829866668</v>
@@ -16453,7 +16189,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.682845270064858</v>
+        <v>1.605431980228793</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.573156447585559</v>
@@ -16542,7 +16278,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.679997494140982</v>
+        <v>1.604489733356789</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.296525072974681</v>
@@ -16631,7 +16367,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.672586595137703</v>
+        <v>1.597883236794301</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.056281373089236</v>
@@ -16720,7 +16456,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.658422338170869</v>
+        <v>1.590524862221983</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.128815813907676</v>
@@ -16809,7 +16545,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.656513275312985</v>
+        <v>1.593730932705612</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.142195455708041</v>
@@ -16898,7 +16634,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.656146257603193</v>
+        <v>1.593334301404487</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.030799306997372</v>
@@ -16987,7 +16723,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.653791442797106</v>
+        <v>1.582011076634572</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.851734615897596</v>
@@ -17076,7 +16812,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.618404789050713</v>
+        <v>1.556678059358827</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.763210602184603</v>
@@ -17165,7 +16901,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.599675520139743</v>
+        <v>1.543925323688647</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.682198677886289</v>
@@ -17254,7 +16990,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.6039253324337</v>
+        <v>1.536860045941546</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.843755902743249</v>
@@ -17343,7 +17079,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.61186926619214</v>
+        <v>1.540773193776783</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.80221168366583</v>
@@ -17432,7 +17168,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.607941676215674</v>
+        <v>1.539136354072282</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.814535585717985</v>
@@ -17521,7 +17257,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.610799766287326</v>
+        <v>1.54085946116925</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.676370631007547</v>
@@ -17610,7 +17346,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.608233697488954</v>
+        <v>1.535463843525871</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.87804174652732</v>
@@ -17699,7 +17435,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.615439510276695</v>
+        <v>1.540364081227013</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.734440158653888</v>
@@ -17788,7 +17524,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.617663740335469</v>
+        <v>1.529538506121631</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.760297056195764</v>
@@ -17877,7 +17613,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.614602407539999</v>
+        <v>1.529205935623224</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.657087796953307</v>
@@ -17966,7 +17702,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.615602013805242</v>
+        <v>1.529380234705281</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.747938326035721</v>
@@ -18055,7 +17791,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.60055486832428</v>
+        <v>1.517061753587104</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.774856343099135</v>
@@ -18144,7 +17880,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.603492238933055</v>
+        <v>1.519342538095846</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.64945605239022</v>
@@ -18233,7 +17969,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.603109449936257</v>
+        <v>1.517044415836216</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.731957265125908</v>
@@ -18322,7 +18058,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.611110276315362</v>
+        <v>1.527873954680063</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.41634684931302</v>
@@ -18411,7 +18147,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.639745208139616</v>
+        <v>1.545859770996335</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.848824675935067</v>
@@ -18500,7 +18236,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.650318951959507</v>
+        <v>1.547356431488722</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.597095336684593</v>
@@ -18589,7 +18325,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.647298126480102</v>
+        <v>1.552970646716035</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.917892363321003</v>
@@ -18678,7 +18414,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.640587217731093</v>
+        <v>1.553671300712965</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.915282870329153</v>
@@ -18767,7 +18503,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.642324540349936</v>
+        <v>1.550115924060852</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.897517426791209</v>
@@ -18856,7 +18592,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.639741623982397</v>
+        <v>1.550507133509783</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.686940389318972</v>
@@ -18945,7 +18681,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.649611379168528</v>
+        <v>1.559913709606615</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.890743016611434</v>
@@ -19034,7 +18770,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.646616174446646</v>
+        <v>1.555010024584456</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.940101085863607</v>
@@ -19123,7 +18859,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.642737855834097</v>
+        <v>1.56172143418027</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.818222500874894</v>
@@ -19212,7 +18948,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.640734229768944</v>
+        <v>1.559760422610525</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.585129012966379</v>
@@ -19301,7 +19037,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.657662524506202</v>
+        <v>1.572307406463003</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.750366374908681</v>
@@ -19390,7 +19126,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.671038276089649</v>
+        <v>1.587311505587984</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.119840593359716</v>
@@ -19479,7 +19215,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.667268072351955</v>
+        <v>1.577713356132846</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.870698632523945</v>
@@ -19568,7 +19304,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.672063438084972</v>
+        <v>1.582282417190737</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.469866420727873</v>
@@ -19657,7 +19393,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.675066532149242</v>
+        <v>1.576278293891984</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.259873982881653</v>
@@ -19746,7 +19482,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.670284514416187</v>
+        <v>1.574707846632073</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.039060193897152</v>
@@ -19835,7 +19571,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.674809183486715</v>
+        <v>1.592578087234158</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.166561972547867</v>
@@ -19924,7 +19660,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.688417287732214</v>
+        <v>1.601729281072437</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.279693167753082</v>
@@ -20013,7 +19749,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.692013890267716</v>
+        <v>1.59024264927624</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.618791287900575</v>
@@ -20102,7 +19838,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.694972364256978</v>
+        <v>1.583878769806883</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.551265904800672</v>
@@ -20191,7 +19927,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.686309067431055</v>
+        <v>1.576306826216339</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.958546303216417</v>
@@ -20280,7 +20016,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.677292775566503</v>
+        <v>1.57241502268541</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.499802047070708</v>
@@ -20369,7 +20105,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.677911352559234</v>
+        <v>1.577157538260172</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.478879283589127</v>
@@ -20458,7 +20194,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.679461767879021</v>
+        <v>1.574243012677357</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.221029157475382</v>
@@ -20547,7 +20283,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.684283892697019</v>
+        <v>1.576683075181681</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.288697316826577</v>
@@ -20636,7 +20372,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.691864546861803</v>
+        <v>1.578068315505866</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.133458538190176</v>
@@ -20725,7 +20461,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.679394117604636</v>
+        <v>1.564046170237536</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.98846897543975</v>
@@ -20814,7 +20550,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.67427016673111</v>
+        <v>1.572633684485226</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.381746286048753</v>
@@ -20903,7 +20639,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.670319445983336</v>
+        <v>1.565255307584037</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.238579604230913</v>
@@ -20992,7 +20728,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.667227448812284</v>
+        <v>1.561607360616359</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.031255473155293</v>
@@ -21081,7 +20817,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.663269657502705</v>
+        <v>1.556252570731915</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.068201466300555</v>
@@ -21170,7 +20906,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.665549236943591</v>
+        <v>1.551811087996569</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.311447009800024</v>
@@ -21259,7 +20995,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.660508965825161</v>
+        <v>1.549879656730113</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.340447481826204</v>
@@ -21348,7 +21084,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.656606448330504</v>
+        <v>1.556537268791204</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.387281839777145</v>
@@ -21437,7 +21173,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.655077040214598</v>
+        <v>1.565292544285159</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.526542017501299</v>
@@ -21526,7 +21262,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.660185594900377</v>
+        <v>1.570720121978336</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.491422888609568</v>
@@ -21615,7 +21351,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.656545333991569</v>
+        <v>1.565360840675084</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.439157419079946</v>
@@ -21704,7 +21440,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.653826649598183</v>
+        <v>1.557078710957274</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.200842791517232</v>
@@ -21793,7 +21529,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.650834991423593</v>
+        <v>1.554804278316051</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.510684710046936</v>
@@ -21882,7 +21618,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.64958752000187</v>
+        <v>1.543800579203204</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.377593646347322</v>
@@ -21971,7 +21707,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.642925083115189</v>
+        <v>1.543968902676355</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.345336719707738</v>
@@ -22060,7 +21796,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.647193578098614</v>
+        <v>1.542364879257919</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.263266373738139</v>
@@ -22149,7 +21885,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.650963442764252</v>
+        <v>1.538754041845183</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.031029158192685</v>
@@ -22238,7 +21974,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.637083457286765</v>
+        <v>1.523241402899174</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.394385723148947</v>
@@ -22327,7 +22063,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.637105929246206</v>
+        <v>1.533831323679751</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.479852219488279</v>
@@ -22416,7 +22152,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.6296476937323</v>
+        <v>1.530727360197326</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.747312285742853</v>
@@ -22505,7 +22241,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.630828697611632</v>
+        <v>1.526481604061504</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.759468069921063</v>
@@ -22594,7 +22330,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.629202636131791</v>
+        <v>1.523042125168499</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.054572639170278</v>
@@ -22683,7 +22419,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.637242235968606</v>
+        <v>1.528512933750384</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.820303426373056</v>
@@ -22772,7 +22508,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.645148666602551</v>
+        <v>1.532249492030141</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.262625851313179</v>
@@ -22861,7 +22597,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.650701815749537</v>
+        <v>1.536678215347375</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.352130229198638</v>
@@ -22950,7 +22686,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.656164586419605</v>
+        <v>1.536124062946588</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.323624999539838</v>
@@ -23039,7 +22775,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.654455412808447</v>
+        <v>1.535754058106525</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.464555525823358</v>
@@ -23128,7 +22864,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.657816391533504</v>
+        <v>1.533789026148948</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.835488949739659</v>
@@ -23217,7 +22953,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.660217290110287</v>
+        <v>1.532972285980398</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.906444925762084</v>
@@ -23306,7 +23042,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.662806197829013</v>
+        <v>1.531001064739543</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.503760542343592</v>
@@ -23395,7 +23131,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.667201304544772</v>
+        <v>1.528593714001603</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.559850855093837</v>
@@ -23484,7 +23220,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.663401889686128</v>
+        <v>1.531013244978144</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.370163083871583</v>
@@ -23573,7 +23309,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.675912222320506</v>
+        <v>1.545466942388345</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.315947146651002</v>
@@ -23662,7 +23398,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.681631945989352</v>
+        <v>1.546054067853852</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.008549552986074</v>
@@ -23751,7 +23487,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.687639098875257</v>
+        <v>1.551980321503305</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.989422375649018</v>
@@ -23840,7 +23576,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.676125508360729</v>
+        <v>1.546328218260824</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.535957759157683</v>
@@ -23929,7 +23665,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.679772814367709</v>
+        <v>1.549770070309315</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.487268728677363</v>
@@ -24215,7 +23951,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.667757050817374</v>
+        <v>1.555880852995736</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.551862755266398</v>
@@ -24304,7 +24040,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.66235001383168</v>
+        <v>1.552143095779597</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.140914385626398</v>
@@ -24393,7 +24129,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.665713543274955</v>
+        <v>1.550555822314145</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.515056600192753</v>
@@ -24482,7 +24218,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.658795088785223</v>
+        <v>1.544926524459695</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.640414994959627</v>
@@ -24571,7 +24307,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.657301663782426</v>
+        <v>1.544050655092648</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.685173945510241</v>
@@ -24660,7 +24396,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.642306227050629</v>
+        <v>1.52519271828804</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.227421635089475</v>
@@ -24749,7 +24485,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.64090915656672</v>
+        <v>1.532195569491983</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.344480022593912</v>
@@ -24838,7 +24574,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.63091162486094</v>
+        <v>1.534679964706955</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.009250118584511</v>
@@ -24927,7 +24663,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.629742918219164</v>
+        <v>1.530539174344265</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.436964012073653</v>
@@ -25016,7 +24752,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.625631149696122</v>
+        <v>1.528001235083087</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.824716078928706</v>
@@ -25105,7 +24841,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.619078252733994</v>
+        <v>1.519160585227321</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.381958441539584</v>
@@ -25194,7 +24930,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.619957337639697</v>
+        <v>1.50699968574396</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.432582885848391</v>
@@ -25283,7 +25019,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.623645328732491</v>
+        <v>1.509271546450625</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.449332633407756</v>
@@ -25372,7 +25108,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.628508364791384</v>
+        <v>1.515838863122386</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.171275715721528</v>
@@ -25461,7 +25197,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.636327458041515</v>
+        <v>1.525706505304354</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.701410905436267</v>
@@ -25550,7 +25286,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.640201588746008</v>
+        <v>1.527033961410268</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.272761472696751</v>
@@ -25639,7 +25375,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.64716406710329</v>
+        <v>1.532918623599671</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.442078652199544</v>
@@ -25728,7 +25464,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.651181139010813</v>
+        <v>1.534764916329146</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.693034659547369</v>
@@ -25817,7 +25553,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.657628958910578</v>
+        <v>1.537324512502383</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.594927163203302</v>
@@ -25906,7 +25642,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.658501050181502</v>
+        <v>1.539179120876343</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.242406560575886</v>
@@ -25995,7 +25731,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.660616618994962</v>
+        <v>1.545670285364665</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.426544311407455</v>
@@ -26084,7 +25820,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.666160846092096</v>
+        <v>1.550286950118781</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.295558480734465</v>
@@ -26173,7 +25909,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.673534328057561</v>
+        <v>1.552760513688417</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.485157569575862</v>
@@ -26262,7 +25998,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.679361859187487</v>
+        <v>1.557957267597805</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.248908702540132</v>
@@ -26351,7 +26087,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.687067136314339</v>
+        <v>1.560280539537632</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.264350169041782</v>
@@ -26440,7 +26176,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.693365234436956</v>
+        <v>1.562647655088686</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.088631405864109</v>
@@ -26529,7 +26265,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.690969720051841</v>
+        <v>1.576471883440639</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.423242306693213</v>
@@ -26618,7 +26354,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.683008150789871</v>
+        <v>1.571108093871405</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.457942544557985</v>
@@ -26707,7 +26443,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.680739482762523</v>
+        <v>1.567600589964724</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.475883287595549</v>
@@ -26796,7 +26532,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.687950660298483</v>
+        <v>1.570120814271214</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.381374535721977</v>
@@ -26885,7 +26621,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.6897502365235</v>
+        <v>1.575614435422597</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.35826474697314</v>
@@ -26974,7 +26710,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.696127689860465</v>
+        <v>1.584405421924379</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.346251505053148</v>
@@ -27063,7 +26799,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.690377405748606</v>
+        <v>1.583850443534955</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.616661204860803</v>
@@ -27152,7 +26888,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.687980442057484</v>
+        <v>1.577276719109952</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.623627210142924</v>
@@ -27241,7 +26977,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.700766758103986</v>
+        <v>1.578314753291063</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.288595939532255</v>
@@ -27330,7 +27066,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.693441828508764</v>
+        <v>1.570186820726774</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.468528686394173</v>
@@ -27419,7 +27155,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.687778037005206</v>
+        <v>1.558905112881639</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.780594304740605</v>
@@ -27508,7 +27244,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.693162960914247</v>
+        <v>1.563679066083578</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.512516668374738</v>
@@ -27597,7 +27333,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.69111545415902</v>
+        <v>1.561260705793237</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.81566660776154</v>
@@ -27686,7 +27422,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.692381103725992</v>
+        <v>1.557512364488474</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.359014788451797</v>
@@ -27775,7 +27511,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.705235922480752</v>
+        <v>1.572737020853716</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.372632420155054</v>
@@ -27864,7 +27600,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.715540071442404</v>
+        <v>1.574544906545149</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.52405641024314</v>
@@ -27953,7 +27689,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.719240712906498</v>
+        <v>1.578817685330848</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.927059259518802</v>
@@ -28042,7 +27778,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.716461196763645</v>
+        <v>1.56750174765884</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.506604471614534</v>
@@ -28131,7 +27867,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.708281155671551</v>
+        <v>1.567819376586534</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.212329876903225</v>
@@ -28220,7 +27956,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.706853112045194</v>
+        <v>1.565799181684757</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.431616806541238</v>
@@ -28309,7 +28045,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.702371781495809</v>
+        <v>1.553766693764041</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.822918603409378</v>
@@ -28398,7 +28134,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.704814732686915</v>
+        <v>1.554086899703361</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.710678624664355</v>
@@ -28487,7 +28223,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.707869136977622</v>
+        <v>1.563349379348997</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.946892227608373</v>
@@ -28576,7 +28312,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.7025343430039</v>
+        <v>1.560381929222981</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.981295104921264</v>
@@ -28665,7 +28401,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.71624480936552</v>
+        <v>1.569708707188619</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.221750313631452</v>
@@ -28754,7 +28490,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.714272750645264</v>
+        <v>1.571782922407387</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.558076163289817</v>
@@ -28843,7 +28579,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.708839170019734</v>
+        <v>1.566289339731227</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.668059296902739</v>
@@ -28932,7 +28668,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.715176708444247</v>
+        <v>1.577265771612524</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.628874728048158</v>
@@ -29021,7 +28757,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.712792590371689</v>
+        <v>1.58352700815854</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.683498798069742</v>
@@ -29110,7 +28846,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.71194843356635</v>
+        <v>1.580576958534431</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.579890021397653</v>
@@ -29199,7 +28935,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.709261273851787</v>
+        <v>1.577050108405028</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.897382890829832</v>
@@ -29288,7 +29024,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.708758935424146</v>
+        <v>1.575637975033975</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.769442975968457</v>
@@ -29377,7 +29113,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.716596106078974</v>
+        <v>1.587932477839444</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.287899586994564</v>
@@ -29466,7 +29202,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.720015544258887</v>
+        <v>1.590653460123975</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.017022255086992</v>
@@ -29555,7 +29291,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.71722079060237</v>
+        <v>1.58497344091012</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.755705306688895</v>
@@ -29644,7 +29380,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.716298450366567</v>
+        <v>1.590332051926121</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.423693329333714</v>
@@ -29733,7 +29469,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.708515980685125</v>
+        <v>1.587402098847843</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.510412499468889</v>
@@ -29822,7 +29558,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.696251500548932</v>
+        <v>1.570283639316479</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.206829286057864</v>
@@ -29911,7 +29647,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.691362154656581</v>
+        <v>1.571086770887261</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.026860819957055</v>
@@ -30000,7 +29736,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.689112562299711</v>
+        <v>1.570916246679338</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.881493698908978</v>
@@ -30089,7 +29825,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.683396201926632</v>
+        <v>1.567806284622812</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.022352988325738</v>
@@ -30178,7 +29914,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.680836070205993</v>
+        <v>1.561516324999748</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.694528927077562</v>
@@ -30267,7 +30003,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.678366166521568</v>
+        <v>1.55479609183616</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.840667226078017</v>
@@ -30356,7 +30092,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.677109514843055</v>
+        <v>1.552638082013772</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>4.198853660732815</v>
@@ -30445,7 +30181,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.674996719832484</v>
+        <v>1.550349693003994</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.476115626595391</v>
@@ -30534,7 +30270,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.673395590548945</v>
+        <v>1.558737296091484</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.63142530760189</v>
@@ -30623,7 +30359,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.670114276827895</v>
+        <v>1.551724407976568</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.379255631206063</v>
@@ -30712,7 +30448,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.669588951385886</v>
+        <v>1.55309788101246</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.835079790335424</v>
@@ -30801,7 +30537,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.666077356150824</v>
+        <v>1.549598205554991</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.870573578681916</v>
@@ -30890,7 +30626,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.661580809059041</v>
+        <v>1.541134718234559</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.767941898330311</v>
@@ -30979,7 +30715,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.665297068241864</v>
+        <v>1.543269892502308</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.198443030336414</v>
@@ -31068,7 +30804,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.666660646281992</v>
+        <v>1.545306836143287</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.469601252331154</v>
@@ -31157,7 +30893,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.678499018141615</v>
+        <v>1.547307397207548</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.141471982637762</v>
@@ -31246,7 +30982,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.67593849734388</v>
+        <v>1.539257272578614</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.596671369066142</v>
@@ -31335,7 +31071,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.675391232742713</v>
+        <v>1.53889893602906</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.448837009558504</v>
@@ -31424,7 +31160,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.673612993261476</v>
+        <v>1.537611413595752</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.311284660633535</v>
@@ -31513,7 +31249,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.681624522809761</v>
+        <v>1.548173859664578</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.149827392036527</v>
@@ -31602,7 +31338,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.675912427958824</v>
+        <v>1.546482811043785</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.349559413677571</v>
@@ -31691,7 +31427,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.675340059309294</v>
+        <v>1.544741804701752</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.617161935362079</v>
@@ -31780,7 +31516,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.672180596773333</v>
+        <v>1.539721407184881</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.227842381341293</v>
@@ -31869,7 +31605,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.673019232046115</v>
+        <v>1.540736721102299</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.72308410944063</v>
@@ -32155,7 +31891,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.722142887621168</v>
+        <v>1.609024348638613</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.242264657253041</v>
@@ -32244,7 +31980,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.722913972046464</v>
+        <v>1.609577721160883</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.667166095056635</v>
@@ -32333,7 +32069,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.720582768784722</v>
+        <v>1.605975181090877</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.910828905233013</v>
@@ -32422,7 +32158,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.71417000368667</v>
+        <v>1.590691137191373</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.116598625747195</v>
@@ -32511,7 +32247,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.715649375349257</v>
+        <v>1.587525398615834</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.328326250781835</v>
@@ -32600,7 +32336,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.705392415375374</v>
+        <v>1.576594439764241</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.93574995333141</v>
@@ -32689,7 +32425,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.702503531963889</v>
+        <v>1.583646768937248</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.304467192411574</v>
@@ -32778,7 +32514,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.704982835827992</v>
+        <v>1.589656091251663</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.448765628235739</v>
@@ -32867,7 +32603,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.700498543974112</v>
+        <v>1.593883042273714</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.628990469839299</v>
@@ -32956,7 +32692,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.70829768952313</v>
+        <v>1.607020577725015</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.746191492449928</v>
@@ -33045,7 +32781,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.708246998572725</v>
+        <v>1.604319023565705</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.434959124856834</v>
@@ -33134,7 +32870,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.705107071849668</v>
+        <v>1.595608018682855</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.979481490444127</v>
@@ -33223,7 +32959,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.702578458398241</v>
+        <v>1.585506876057391</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.979661251615133</v>
@@ -33312,7 +33048,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.705296527805601</v>
+        <v>1.596015219194387</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.047855331643149</v>
@@ -33401,7 +33137,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.711397013166825</v>
+        <v>1.607110328870367</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.079419317448536</v>
@@ -33490,7 +33226,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.70487523510167</v>
+        <v>1.599068603941512</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.112455171510788</v>
@@ -33579,7 +33315,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.708507804491859</v>
+        <v>1.603430702677944</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.480264966863476</v>
@@ -33668,7 +33404,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.707345263703533</v>
+        <v>1.599886716714255</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.709917950538427</v>
@@ -33757,7 +33493,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.716900914663208</v>
+        <v>1.60917957680442</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.243298423640655</v>
@@ -33846,7 +33582,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.706791950252432</v>
+        <v>1.605798536838463</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.00533750971605</v>
@@ -33935,7 +33671,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.703264263572025</v>
+        <v>1.601841603541962</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.147438157631472</v>
@@ -34024,7 +33760,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.706281715762139</v>
+        <v>1.597779832781983</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.35413202642443</v>
@@ -34113,7 +33849,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.705159793214437</v>
+        <v>1.582793231791274</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.985494041954741</v>
@@ -34202,7 +33938,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.707571733131753</v>
+        <v>1.56712056482965</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.308648234024446</v>
@@ -34291,7 +34027,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.706967230685173</v>
+        <v>1.544185769727457</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.656989477635761</v>
@@ -34380,7 +34116,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.706164495108469</v>
+        <v>1.542507996576131</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.165570370571634</v>
@@ -34469,7 +34205,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.707105307702289</v>
+        <v>1.546845954370282</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.603757210247446</v>
@@ -34558,7 +34294,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.714006859913011</v>
+        <v>1.557959345576118</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.092360744272227</v>
@@ -34647,7 +34383,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.71023898026017</v>
+        <v>1.557601340717436</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.23524441843073</v>
@@ -34736,7 +34472,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.712673208543228</v>
+        <v>1.55472622772362</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.887991612510351</v>
@@ -34825,7 +34561,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.713288292779257</v>
+        <v>1.558316357441447</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.952585605310694</v>
@@ -34914,7 +34650,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.710063790324191</v>
+        <v>1.550225683568747</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.724259888017028</v>
@@ -35003,7 +34739,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.714666343893547</v>
+        <v>1.561046919370038</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.281100420891202</v>
@@ -35092,7 +34828,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.716450492340168</v>
+        <v>1.564627740168253</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.313862259534663</v>
@@ -35181,7 +34917,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.725427454899036</v>
+        <v>1.571804737016497</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.925242394628742</v>
@@ -35270,7 +35006,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.737474412220309</v>
+        <v>1.580793975093034</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.404284925633712</v>
@@ -35359,7 +35095,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.739530965032231</v>
+        <v>1.583980660476987</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.306892131775191</v>
@@ -35448,7 +35184,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.74340238353697</v>
+        <v>1.60006334509642</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.610250732813935</v>
@@ -35537,7 +35273,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.737998531865372</v>
+        <v>1.608249205005628</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.116456824342885</v>
@@ -35626,7 +35362,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.742651583427774</v>
+        <v>1.624705734724025</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.75759718125409</v>
@@ -35715,7 +35451,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.751209499258622</v>
+        <v>1.633714318000213</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.211766513327672</v>
@@ -35804,7 +35540,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.755663226560388</v>
+        <v>1.636766091283929</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.271665516349709</v>
@@ -35893,7 +35629,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.754915446965193</v>
+        <v>1.62494482643165</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.499697607418671</v>
@@ -35982,7 +35718,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.746543258211325</v>
+        <v>1.607425874225956</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.84970461846404</v>
@@ -36071,7 +35807,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.746786428834983</v>
+        <v>1.618304951572884</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.432983782578659</v>
@@ -36160,7 +35896,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.74994117775566</v>
+        <v>1.623710135044033</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.558900870096382</v>
@@ -36249,7 +35985,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.753663961250266</v>
+        <v>1.631000624863781</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.647348914154172</v>
@@ -36338,7 +36074,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.750372238699325</v>
+        <v>1.627321578688803</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.740156864508713</v>
@@ -36427,7 +36163,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.741339212915911</v>
+        <v>1.614275767948525</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.057310581180646</v>
@@ -36516,7 +36252,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.741511478926542</v>
+        <v>1.607618022522837</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.988511848632534</v>
@@ -36605,7 +36341,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.737006668680946</v>
+        <v>1.605168236701542</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.015225907904821</v>
@@ -36694,7 +36430,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.736768082670264</v>
+        <v>1.601622054403381</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.125646934407709</v>
@@ -36783,7 +36519,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.735837808347796</v>
+        <v>1.581501906064573</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.011058458748818</v>
@@ -36872,7 +36608,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.733392161197076</v>
+        <v>1.562465114095069</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.564594985244104</v>
@@ -36961,7 +36697,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.730191023899328</v>
+        <v>1.561333829536411</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.754845023297366</v>
@@ -37050,7 +36786,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.729278689374601</v>
+        <v>1.558048612893164</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.680034953599357</v>
@@ -37139,7 +36875,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.716627995764038</v>
+        <v>1.543405723993719</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.65366166327406</v>
@@ -37228,7 +36964,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.722521428875774</v>
+        <v>1.554745327255347</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.605102703225572</v>
@@ -37317,7 +37053,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.724852974581466</v>
+        <v>1.552052806758456</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.718703776736607</v>
@@ -37406,7 +37142,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.726201454033481</v>
+        <v>1.554900795902363</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.96808871269923</v>
@@ -37495,7 +37231,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.726479303525069</v>
+        <v>1.551411912037564</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.755428179265822</v>
@@ -37584,7 +37320,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.720435633685878</v>
+        <v>1.538832361200229</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.184737501795189</v>
@@ -37673,7 +37409,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.71205957153192</v>
+        <v>1.529537511985022</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.750258329179575</v>
@@ -37762,7 +37498,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.713445057303331</v>
+        <v>1.525963340149853</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.029075107005295</v>
@@ -37851,7 +37587,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.717203379731229</v>
+        <v>1.529973292081995</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.061262642848041</v>
@@ -37940,7 +37676,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.71028237161695</v>
+        <v>1.523401449861736</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.000297209581383</v>
@@ -38029,7 +37765,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.705803305391787</v>
+        <v>1.515200817633664</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.193006930425704</v>
@@ -38118,7 +37854,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.704205433319098</v>
+        <v>1.52446828916304</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.916341443620311</v>
@@ -38207,7 +37943,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.711912232444267</v>
+        <v>1.550126230961012</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.438794386290803</v>
@@ -38296,7 +38032,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.71860646050874</v>
+        <v>1.559654559844941</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>4.438848314423979</v>
@@ -38385,7 +38121,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.719363165706297</v>
+        <v>1.561613763331281</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.426803317320228</v>
@@ -38474,7 +38210,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.723766249154303</v>
+        <v>1.564769809618444</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>4.244606395290247</v>
@@ -38563,7 +38299,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.719834836304132</v>
+        <v>1.556336518308562</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.477789949907079</v>
@@ -38652,7 +38388,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.723571829914917</v>
+        <v>1.566688666979334</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.832516347022321</v>
@@ -38741,7 +38477,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.725166138262613</v>
+        <v>1.562942206030658</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.823970667786693</v>
@@ -38830,7 +38566,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.723696443611995</v>
+        <v>1.555385508891018</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.769197095869688</v>
@@ -38919,7 +38655,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.723002231743879</v>
+        <v>1.552087727649972</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>4.082561220154652</v>
@@ -39008,7 +38744,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.718715931614858</v>
+        <v>1.545252675603086</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.810470509191696</v>
@@ -39097,7 +38833,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.719442514477293</v>
+        <v>1.540732558877258</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.844836095527639</v>
@@ -39186,7 +38922,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.716416346629449</v>
+        <v>1.541623737666434</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.56431311252172</v>
@@ -39275,7 +39011,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.724800738110199</v>
+        <v>1.547568449019209</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>4.042861458437602</v>
@@ -39364,7 +39100,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.733282437979399</v>
+        <v>1.559632704387887</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.714923339062609</v>
@@ -39453,7 +39189,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.733778746334982</v>
+        <v>1.557776613614274</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.917339351880824</v>
@@ -39542,7 +39278,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.730530043603291</v>
+        <v>1.552698957047942</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>4.097088738721665</v>
@@ -39631,7 +39367,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.726742269844359</v>
+        <v>1.545717643959269</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.84663926383765</v>
@@ -39720,7 +39456,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.72226899519183</v>
+        <v>1.547829812654067</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.614223019336936</v>
@@ -39809,7 +39545,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.723555468153693</v>
+        <v>1.550355796989437</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>4.242108123805171</v>
@@ -40095,7 +39831,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.616092815420586</v>
+        <v>1.576939826082272</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.526706947640364</v>
@@ -40184,7 +39920,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.614607992327449</v>
+        <v>1.576796363344137</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.618182483583464</v>
@@ -40273,7 +40009,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.653703627177223</v>
+        <v>1.604230594146516</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.683253483972864</v>
@@ -40362,7 +40098,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.663333611547117</v>
+        <v>1.607435612173739</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.184732869084424</v>
@@ -40451,7 +40187,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.658253264574181</v>
+        <v>1.605892305768596</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.164895471592354</v>
@@ -40540,7 +40276,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.641935731923786</v>
+        <v>1.595628713316322</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.384834918462398</v>
@@ -40629,7 +40365,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.639334159929745</v>
+        <v>1.594704562166452</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.822158443069569</v>
@@ -40718,7 +40454,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.635288835497635</v>
+        <v>1.588620203279782</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.655098411792351</v>
@@ -40807,7 +40543,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.647452951473755</v>
+        <v>1.587800798251876</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.969238350725824</v>
@@ -40896,7 +40632,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.651572474429879</v>
+        <v>1.585892794931296</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.241812213275016</v>
@@ -40985,7 +40721,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.628852078878782</v>
+        <v>1.578206323032187</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.559517128229378</v>
@@ -41074,7 +40810,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.632254675148738</v>
+        <v>1.578231520000159</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.964348053719821</v>
@@ -41163,7 +40899,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.624427651391017</v>
+        <v>1.56307645116972</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.386532413616376</v>
@@ -41252,7 +40988,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.621713205532569</v>
+        <v>1.555937877192095</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.821831727864776</v>
@@ -41341,7 +41077,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.605806088869945</v>
+        <v>1.546124148496457</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.356885575530272</v>
@@ -41430,7 +41166,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.606456260575234</v>
+        <v>1.541799255348879</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.930459647908266</v>
@@ -41519,7 +41255,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.598350765997885</v>
+        <v>1.533283458091314</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.50577279299016</v>
@@ -41608,7 +41344,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.604439234069401</v>
+        <v>1.537406543564411</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.610705673299689</v>
@@ -41697,7 +41433,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.595151609842369</v>
+        <v>1.529491931519079</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.802277232408563</v>
@@ -41786,7 +41522,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.584368567578465</v>
+        <v>1.520506556742165</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.443164553977701</v>
@@ -41875,7 +41611,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.588159501197158</v>
+        <v>1.518469760072916</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.600901780816437</v>
@@ -41964,7 +41700,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.593182917460915</v>
+        <v>1.522225255261912</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.763861631634625</v>
@@ -42053,7 +41789,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.589787609793539</v>
+        <v>1.521331206545828</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.809768426943741</v>
@@ -42142,7 +41878,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.59226915022952</v>
+        <v>1.528904285844545</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.788568952808804</v>
@@ -42231,7 +41967,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.603533229227097</v>
+        <v>1.536604984374359</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.735233595192121</v>
@@ -42320,7 +42056,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.60903541990083</v>
+        <v>1.543268186382549</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.676222069338341</v>
@@ -42409,7 +42145,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.613188451712656</v>
+        <v>1.550156426456011</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.662723635347028</v>
@@ -42498,7 +42234,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.620818585885364</v>
+        <v>1.557837916978459</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.857801007790652</v>
@@ -42587,7 +42323,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.610610714086008</v>
+        <v>1.553727915146869</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.686577558520782</v>
@@ -42676,7 +42412,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.62505082612279</v>
+        <v>1.561996289314271</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.700315572272447</v>
@@ -42765,7 +42501,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.640075605754049</v>
+        <v>1.570838072267033</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.641302646665609</v>
@@ -42854,7 +42590,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.624644949457263</v>
+        <v>1.563036844903396</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.014263244403387</v>
@@ -42943,7 +42679,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.607142734192945</v>
+        <v>1.548363707572518</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.179999602877459</v>
@@ -43032,7 +42768,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.618701890462513</v>
+        <v>1.553459925121745</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.097899143319091</v>
@@ -43121,7 +42857,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.62630956926664</v>
+        <v>1.563941695980549</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.143222614235473</v>
@@ -43210,7 +42946,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.618644471376587</v>
+        <v>1.557619057071052</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.162555949536757</v>
@@ -43299,7 +43035,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.613280702185226</v>
+        <v>1.548119726777259</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.812200526719665</v>
@@ -43388,7 +43124,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.631116304033298</v>
+        <v>1.557208682092441</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.970185897300274</v>
@@ -43477,7 +43213,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.629480111180699</v>
+        <v>1.551514803576825</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.067345163320283</v>
@@ -43566,7 +43302,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.623479637254521</v>
+        <v>1.541362150990703</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.145585198641079</v>
@@ -43655,7 +43391,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.632746324568376</v>
+        <v>1.546130199688514</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.850291912372801</v>
@@ -43744,7 +43480,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.630217096998581</v>
+        <v>1.538780671432362</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.181472624439874</v>
@@ -43833,7 +43569,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.632886650171128</v>
+        <v>1.537431492740426</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.00702248110437</v>
@@ -43922,7 +43658,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.636506144928341</v>
+        <v>1.539296997857417</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.14380141815869</v>
@@ -44011,7 +43747,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.639635232486728</v>
+        <v>1.548757146282254</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.928963166184396</v>
@@ -44100,7 +43836,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.631405947047663</v>
+        <v>1.54306456946389</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.3737271525037</v>
@@ -44189,7 +43925,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.649232831022814</v>
+        <v>1.55433994860376</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.926804217883765</v>
@@ -44278,7 +44014,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.64992203551894</v>
+        <v>1.563337760549466</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.242163817884586</v>
@@ -44367,7 +44103,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.650168123445926</v>
+        <v>1.560283597981103</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.360429647099315</v>
@@ -44456,7 +44192,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.661444272776949</v>
+        <v>1.563917380203914</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.132050761094117</v>
@@ -44545,7 +44281,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.680302589702144</v>
+        <v>1.582656274192845</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.775553886534523</v>
@@ -44634,7 +44370,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.675444131755354</v>
+        <v>1.580454771985836</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.56536927653177</v>
@@ -44723,7 +44459,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.661304328134891</v>
+        <v>1.575553404027037</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.074116163606568</v>
@@ -44812,7 +44548,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.66939432703043</v>
+        <v>1.586219545885949</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.337421489604222</v>
@@ -44901,7 +44637,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.663200336204352</v>
+        <v>1.584401058297109</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.032053012639213</v>
@@ -44990,7 +44726,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.669408564653398</v>
+        <v>1.590596487848783</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.192135904561933</v>
@@ -45079,7 +44815,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.669780069292859</v>
+        <v>1.591964683178924</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.311260903587864</v>
@@ -45168,7 +44904,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.668371829423012</v>
+        <v>1.591209582387586</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.000186531785927</v>
@@ -45257,7 +44993,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.648559503990763</v>
+        <v>1.576049912550963</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.263892856374012</v>
@@ -45346,7 +45082,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.65119576973129</v>
+        <v>1.57443394476412</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.382002265842194</v>
@@ -45435,7 +45171,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.658905994202188</v>
+        <v>1.578464492819917</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.99784542812553</v>
@@ -45524,7 +45260,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.653093652830434</v>
+        <v>1.568949967915034</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.929446886171887</v>
@@ -45613,7 +45349,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.649479341442721</v>
+        <v>1.567653834288106</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.197970046553587</v>
@@ -45702,7 +45438,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.651465846931146</v>
+        <v>1.575935333241657</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.357269073603878</v>
@@ -45791,7 +45527,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.64214800258133</v>
+        <v>1.566292216801098</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.173357452552609</v>
@@ -45880,7 +45616,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.623388275169529</v>
+        <v>1.547890430423473</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.192008086844502</v>
@@ -45969,7 +45705,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.634439715860645</v>
+        <v>1.547971400957987</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.951868599279299</v>
@@ -46058,7 +45794,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.633899722253301</v>
+        <v>1.553462224543623</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.311139047412374</v>
@@ -46147,7 +45883,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.621595923340942</v>
+        <v>1.545565453518966</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.197781711360659</v>
@@ -46236,7 +45972,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.623111700937804</v>
+        <v>1.54767446663682</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.169789124718282</v>
@@ -46325,7 +46061,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.612734542835709</v>
+        <v>1.530371566627203</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.125126990454293</v>
@@ -46414,7 +46150,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.617758750972837</v>
+        <v>1.52958918634761</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.922561982747703</v>
@@ -46503,7 +46239,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.616302876729075</v>
+        <v>1.531622679875672</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.172799002417359</v>
@@ -46592,7 +46328,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.633660700814598</v>
+        <v>1.53995002244066</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.529747507932269</v>
@@ -46681,7 +46417,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.628485310565659</v>
+        <v>1.537442736932606</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.152159345276936</v>
@@ -46770,7 +46506,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.631127672710812</v>
+        <v>1.537320632324076</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.310919752357764</v>
@@ -46859,7 +46595,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.639341369836891</v>
+        <v>1.544436588266996</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.131855198816714</v>
@@ -46948,7 +46684,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.639633799677968</v>
+        <v>1.54288578199744</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.051813420886456</v>
@@ -47037,7 +46773,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.641379042834272</v>
+        <v>1.543382368399491</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.190797880013323</v>
@@ -47126,7 +46862,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.635763516200576</v>
+        <v>1.537799484079464</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.503622981514649</v>
@@ -47215,7 +46951,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.647414191532322</v>
+        <v>1.544685228265094</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.121172683457317</v>
@@ -47304,7 +47040,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.640474297322672</v>
+        <v>1.548293319597144</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.497141095979166</v>
@@ -47393,7 +47129,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.644546581292185</v>
+        <v>1.548001916178601</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.555489434935015</v>
@@ -47482,7 +47218,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.659512253806682</v>
+        <v>1.560553312651695</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.528028941927054</v>
@@ -47571,7 +47307,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.660703715601532</v>
+        <v>1.561737181264978</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.57283546882271</v>
@@ -47660,7 +47396,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.657824238586366</v>
+        <v>1.572387648772718</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.263920245910974</v>
@@ -47749,7 +47485,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.64921955641645</v>
+        <v>1.569862817634681</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.424908883213346</v>
@@ -48035,7 +47771,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.577372463525152</v>
+        <v>1.488026296374361</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.8763578815573</v>
@@ -48124,7 +47860,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.574003048338197</v>
+        <v>1.483329826455735</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.991611337986463</v>
@@ -48213,7 +47949,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.584717717786113</v>
+        <v>1.494667508919607</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.690008135336974</v>
@@ -48302,7 +48038,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.568370578926835</v>
+        <v>1.483514651376156</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.912446065608072</v>
@@ -48391,7 +48127,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.575070955367624</v>
+        <v>1.485861459379239</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.952665566201003</v>
@@ -48480,7 +48216,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.549560525001147</v>
+        <v>1.466966521914903</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.871234013818927</v>
@@ -48569,7 +48305,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.544906147950012</v>
+        <v>1.459209973318624</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.545704581933173</v>
@@ -48658,7 +48394,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.538216827387199</v>
+        <v>1.457834915402338</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.358442125814108</v>
@@ -48747,7 +48483,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.540923966573246</v>
+        <v>1.460185296092154</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.870335594979394</v>
@@ -48836,7 +48572,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.560554662858163</v>
+        <v>1.47817591440944</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.984747753997059</v>
@@ -48925,7 +48661,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.547306082709904</v>
+        <v>1.468655229139774</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.932985284082887</v>
@@ -49014,7 +48750,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.568747708587349</v>
+        <v>1.482578686199107</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.832824586277805</v>
@@ -49103,7 +48839,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.56331687332209</v>
+        <v>1.476377826621202</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.142940298081365</v>
@@ -49192,7 +48928,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.56348990606768</v>
+        <v>1.477077637379033</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.573529251074333</v>
@@ -49281,7 +49017,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.559195802545541</v>
+        <v>1.476102818478011</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.099599213125013</v>
@@ -49370,7 +49106,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.553427566232794</v>
+        <v>1.467854234360578</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.916288723328599</v>
@@ -49459,7 +49195,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.556389225649221</v>
+        <v>1.471600379375569</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.767778713094453</v>
@@ -49548,7 +49284,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.556818013046672</v>
+        <v>1.467714727250872</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.86438309552563</v>
@@ -49637,7 +49373,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.563482057940216</v>
+        <v>1.471292737435969</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.038643185599708</v>
@@ -49726,7 +49462,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.558730309618884</v>
+        <v>1.470613380717459</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.65495784344615</v>
@@ -49815,7 +49551,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.559160978922499</v>
+        <v>1.467292319719098</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.751811892071314</v>
@@ -49904,7 +49640,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.565513549466421</v>
+        <v>1.475441598926165</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.74873725812909</v>
@@ -49993,7 +49729,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.573006369665913</v>
+        <v>1.48195454765788</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.193648868369808</v>
@@ -50082,7 +49818,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.57623556411488</v>
+        <v>1.472783090744668</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.105864303917317</v>
@@ -50171,7 +49907,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.574919623397104</v>
+        <v>1.462255432795784</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.810605175602833</v>
@@ -50260,7 +49996,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.587327707659881</v>
+        <v>1.475798118301413</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.828975369792699</v>
@@ -50349,7 +50085,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.578163562122348</v>
+        <v>1.469979204901108</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.831072930113749</v>
@@ -50438,7 +50174,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.578628201270345</v>
+        <v>1.472407273766778</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.808277811166999</v>
@@ -50527,7 +50263,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.571765309168928</v>
+        <v>1.469875924199732</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.895559772430646</v>
@@ -50616,7 +50352,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.586773058905028</v>
+        <v>1.475605986634215</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.775092272878423</v>
@@ -50705,7 +50441,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.606832061034218</v>
+        <v>1.497576250466084</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.749706510270684</v>
@@ -50794,7 +50530,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.594395892395817</v>
+        <v>1.486494991218087</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.298574354811283</v>
@@ -50883,7 +50619,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.5928303465468</v>
+        <v>1.488478247063375</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.958974045119504</v>
@@ -50972,7 +50708,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.601358868520249</v>
+        <v>1.495628827504695</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.220550537540483</v>
@@ -51061,7 +50797,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.612473436511241</v>
+        <v>1.504573666070406</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.897053523087459</v>
@@ -51150,7 +50886,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.615200218214975</v>
+        <v>1.502623804824064</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.235009360030052</v>
@@ -51239,7 +50975,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.617087632465963</v>
+        <v>1.500332115702641</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.809164723598645</v>
@@ -51328,7 +51064,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.627132125353833</v>
+        <v>1.500108056030006</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.979407816510608</v>
@@ -51417,7 +51153,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.635993483970737</v>
+        <v>1.513399930389768</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.022456203403142</v>
@@ -51506,7 +51242,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.633750316762272</v>
+        <v>1.509396910103473</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.908972501747295</v>
@@ -51595,7 +51331,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.649865682380846</v>
+        <v>1.516635223623625</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.989908734902751</v>
@@ -51684,7 +51420,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.653909375800634</v>
+        <v>1.515840734219112</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.159610622182649</v>
@@ -51773,7 +51509,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.660973788010823</v>
+        <v>1.518151795905828</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.005262611164965</v>
@@ -51862,7 +51598,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.643530871279317</v>
+        <v>1.508162625524586</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.952071052466621</v>
@@ -51951,7 +51687,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.636193023381437</v>
+        <v>1.513080895073034</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.971168086175923</v>
@@ -52040,7 +51776,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.623325860784199</v>
+        <v>1.499597424789864</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.878302142100911</v>
@@ -52129,7 +51865,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.635140764673195</v>
+        <v>1.507165090757061</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.889588061496264</v>
@@ -52218,7 +51954,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.624927015343706</v>
+        <v>1.5018707272059</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.915107190411266</v>
@@ -52307,7 +52043,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.613893680666907</v>
+        <v>1.490334383056694</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.873982098677407</v>
@@ -52396,7 +52132,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.615219339905204</v>
+        <v>1.483642907556631</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.948663456403773</v>
@@ -52485,7 +52221,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.622721560077165</v>
+        <v>1.491699646560618</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.873424039333362</v>
@@ -52574,7 +52310,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.624770269779231</v>
+        <v>1.492431657278805</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.973850802883698</v>
@@ -52663,7 +52399,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.614003490775198</v>
+        <v>1.4822049779049</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.78878833312773</v>
@@ -52752,7 +52488,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.608403320852928</v>
+        <v>1.469550075955463</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.978428682128311</v>
@@ -52841,7 +52577,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.598098788374332</v>
+        <v>1.466218120008551</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.818389999328104</v>
@@ -52930,7 +52666,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.59273549623594</v>
+        <v>1.464462085810496</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.930887882860572</v>
@@ -53019,7 +52755,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.593618211438801</v>
+        <v>1.471505152866722</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.898953032260659</v>
@@ -53108,7 +52844,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.612841127291754</v>
+        <v>1.473649443786077</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.57755386043896</v>
@@ -53197,7 +52933,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.614660163166751</v>
+        <v>1.467355100690187</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.445690083832339</v>
@@ -53286,7 +53022,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.613962757737579</v>
+        <v>1.46724258230973</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.255924849168062</v>
@@ -53375,7 +53111,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.62451304300507</v>
+        <v>1.474311846316233</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.157082397557859</v>
@@ -53464,7 +53200,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.611951960848565</v>
+        <v>1.463117509993077</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.830202825256601</v>
@@ -53553,7 +53289,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.610124374469509</v>
+        <v>1.4582171895025</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.164188454634966</v>
@@ -53642,7 +53378,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.622087311917474</v>
+        <v>1.467933923275985</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.467543043798734</v>
@@ -53731,7 +53467,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.612729070827498</v>
+        <v>1.46189908451071</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.207723992414296</v>
@@ -53820,7 +53556,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.597937021820101</v>
+        <v>1.456609604993534</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.25511062421075</v>
@@ -53909,7 +53645,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.598485901734121</v>
+        <v>1.455501509162831</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.064709168243743</v>
@@ -53998,7 +53734,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.594621325058398</v>
+        <v>1.461859974123293</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.373691174847398</v>
@@ -54087,7 +53823,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.597864886403295</v>
+        <v>1.475825807871271</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.204365555294545</v>
@@ -54176,7 +53912,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.600143615374204</v>
+        <v>1.480071434917867</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.131511908486898</v>
@@ -54265,7 +54001,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.601429158265658</v>
+        <v>1.478062243825876</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.091394189793871</v>
@@ -54354,7 +54090,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.607384556338207</v>
+        <v>1.48503752239469</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.382162606485805</v>
@@ -54443,7 +54179,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.593718890195252</v>
+        <v>1.482309808177232</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.99582120719189</v>
@@ -54532,7 +54268,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.600442254211798</v>
+        <v>1.489813741832445</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.311424542705717</v>
@@ -54621,7 +54357,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.600224536597483</v>
+        <v>1.485434445363663</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.939561065886164</v>
@@ -54710,7 +54446,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.597371042881051</v>
+        <v>1.475393381970963</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.182435598736382</v>
@@ -54799,7 +54535,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.622191782141812</v>
+        <v>1.493390996120871</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.149111962147173</v>
@@ -54888,7 +54624,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.624210731848292</v>
+        <v>1.500818768239873</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.86770886916428</v>
@@ -54977,7 +54713,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.631326999111172</v>
+        <v>1.507678482511547</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.802343943823365</v>
@@ -55066,7 +54802,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.63090390620733</v>
+        <v>1.507291792972141</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.853689307788976</v>
@@ -55155,7 +54891,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.644426299373798</v>
+        <v>1.51257876063303</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.909031110621167</v>
@@ -55244,7 +54980,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.635911605428038</v>
+        <v>1.509677488688589</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.953431779013772</v>
@@ -55333,7 +55069,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.651312397110246</v>
+        <v>1.521543961227535</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.284484888325261</v>
@@ -55422,7 +55158,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.652020311335645</v>
+        <v>1.523912904445804</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.462985712013235</v>
@@ -55511,7 +55247,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.66835130849261</v>
+        <v>1.532081571765559</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.402346179083856</v>
@@ -55600,7 +55336,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.659104142148253</v>
+        <v>1.5340134119877</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.405388531910354</v>
@@ -55689,7 +55425,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.645441400745254</v>
+        <v>1.517186466716986</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.424142341430771</v>
